--- a/Rekap Hasil/Hasil Analisis.xlsx
+++ b/Rekap Hasil/Hasil Analisis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Bismillah\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clone Repo\Concreate-Cracking-Classification\Rekap Hasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9DA7C8-0979-42F6-920F-C5F9002B0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C84B7E-7500-493D-A146-E2DA3B15CCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MobileNet" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="181" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="182" formatCode="0.0000000000000000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -204,17 +205,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,10 +223,10 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -233,32 +234,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +523,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1142A-C9D8-474B-A418-56C12469D36B}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +705,7 @@
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="16">
         <v>0.88545186114464602</v>
       </c>
       <c r="G2" s="7">
@@ -747,7 +728,7 @@
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>0.885431230095865</v>
       </c>
       <c r="G3" s="7">
@@ -770,7 +751,7 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>0.885431230095865</v>
       </c>
       <c r="G4" s="7">
@@ -793,7 +774,7 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>0.93383568909496595</v>
       </c>
       <c r="G5" s="7">
@@ -816,7 +797,7 @@
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>0.93283259952896103</v>
       </c>
       <c r="G6" s="7">
@@ -839,7 +820,7 @@
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>0.93283259952896103</v>
       </c>
       <c r="G7" s="7">
@@ -853,19 +834,19 @@
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="6">
         <v>8</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>0.95761824474554103</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="7">
         <v>0.95762499999999995</v>
       </c>
     </row>
@@ -876,19 +857,19 @@
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="6">
         <v>8</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="16">
         <v>0.958243475543053</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="7">
         <v>0.95825000000000005</v>
       </c>
     </row>
@@ -899,19 +880,19 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="6">
         <v>8</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>0.958243475543053</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="7">
         <v>0.95825000000000005</v>
       </c>
     </row>
@@ -922,19 +903,19 @@
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="6">
         <v>8</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="6">
         <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="16">
         <v>0.96662330561124898</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="7">
         <v>0.96662499999999996</v>
       </c>
     </row>
@@ -945,19 +926,19 @@
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="6">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <v>0.96662222077835103</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="7">
         <v>0.96662499999999996</v>
       </c>
     </row>
@@ -968,19 +949,19 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="6">
         <v>8</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="6">
         <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="16">
         <v>0.96662222077835103</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="7">
         <v>0.96662499999999996</v>
       </c>
     </row>
@@ -991,19 +972,19 @@
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="6">
         <v>5</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>0.966874129928318</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="7">
         <v>0.96687500000000004</v>
       </c>
     </row>
@@ -1014,19 +995,19 @@
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="6">
         <v>8</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="6">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>0.96724933679906999</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="7">
         <v>0.96725000000000005</v>
       </c>
     </row>
@@ -1037,19 +1018,19 @@
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="6">
         <v>8</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="6">
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
         <v>0.96724933679906999</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="7">
         <v>0.96725000000000005</v>
       </c>
     </row>
@@ -1060,7 +1041,7 @@
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="6">
         <v>24</v>
       </c>
       <c r="D17" s="6">
@@ -1069,7 +1050,7 @@
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="17">
         <v>0.91415792901373705</v>
       </c>
       <c r="G17" s="2">
@@ -1083,7 +1064,7 @@
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="6">
         <v>24</v>
       </c>
       <c r="D18" s="6">
@@ -1092,7 +1073,7 @@
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>0.91578259113222205</v>
       </c>
       <c r="G18" s="2">
@@ -1106,7 +1087,7 @@
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="6">
         <v>24</v>
       </c>
       <c r="D19" s="6">
@@ -1115,7 +1096,7 @@
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>0.91578259113222205</v>
       </c>
       <c r="G19" s="2">
@@ -1129,7 +1110,7 @@
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="6">
         <v>24</v>
       </c>
       <c r="D20" s="6">
@@ -1138,7 +1119,7 @@
       <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="17">
         <v>0.93658960808422398</v>
       </c>
       <c r="G20" s="2">
@@ -1152,7 +1133,7 @@
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="6">
         <v>24</v>
       </c>
       <c r="D21" s="6">
@@ -1161,7 +1142,7 @@
       <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <v>0.937580751579975</v>
       </c>
       <c r="G21" s="2">
@@ -1175,7 +1156,7 @@
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="6">
         <v>24</v>
       </c>
       <c r="D22" s="6">
@@ -1184,7 +1165,7 @@
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>0.937580751579975</v>
       </c>
       <c r="G22" s="2">
@@ -1198,16 +1179,16 @@
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16">
-        <v>24</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="C23" s="6">
+        <v>24</v>
+      </c>
+      <c r="D23" s="6">
         <v>3</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>0.96774780483496603</v>
       </c>
       <c r="G23" s="2">
@@ -1221,16 +1202,16 @@
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="16">
-        <v>24</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="C24" s="6">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6">
         <v>3</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <v>0.96724719758834299</v>
       </c>
       <c r="G24" s="2">
@@ -1244,16 +1225,16 @@
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="16">
-        <v>24</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C25" s="6">
+        <v>24</v>
+      </c>
+      <c r="D25" s="6">
         <v>3</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="17">
         <v>0.96724719758834299</v>
       </c>
       <c r="G25" s="2">
@@ -1267,16 +1248,16 @@
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="16">
-        <v>24</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C26" s="6">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6">
         <v>4</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="17">
         <v>0.97262464027066298</v>
       </c>
       <c r="G26" s="2">
@@ -1290,16 +1271,16 @@
       <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="16">
-        <v>24</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="C27" s="6">
+        <v>24</v>
+      </c>
+      <c r="D27" s="6">
         <v>4</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="17">
         <v>0.97424968455863503</v>
       </c>
       <c r="G27" s="2">
@@ -1313,16 +1294,16 @@
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="16">
-        <v>24</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="C28" s="6">
+        <v>24</v>
+      </c>
+      <c r="D28" s="6">
         <v>4</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <v>0.97424968455863503</v>
       </c>
       <c r="G28" s="2">
@@ -1336,16 +1317,16 @@
       <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="16">
-        <v>24</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="C29" s="6">
+        <v>24</v>
+      </c>
+      <c r="D29" s="6">
         <v>5</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="17">
         <v>0.97699998706249203</v>
       </c>
       <c r="G29" s="2">
@@ -1359,16 +1340,16 @@
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="16">
-        <v>24</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="C30" s="6">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6">
         <v>5</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="17">
         <v>0.97737495722452805</v>
       </c>
       <c r="G30" s="2">
@@ -1382,16 +1363,16 @@
       <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="16">
-        <v>24</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="C31" s="6">
+        <v>24</v>
+      </c>
+      <c r="D31" s="6">
         <v>5</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="17">
         <v>0.97737495722452805</v>
       </c>
       <c r="G31" s="2">
@@ -1405,7 +1386,7 @@
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="6">
         <v>48</v>
       </c>
       <c r="D32" s="6">
@@ -1414,7 +1395,7 @@
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="17">
         <v>0.928942283369667</v>
       </c>
       <c r="G32" s="2">
@@ -1428,7 +1409,7 @@
       <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="6">
         <v>48</v>
       </c>
       <c r="D33" s="6">
@@ -1437,7 +1418,7 @@
       <c r="E33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <v>0.92869409617139798</v>
       </c>
       <c r="G33" s="2">
@@ -1451,7 +1432,7 @@
       <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="6">
         <v>48</v>
       </c>
       <c r="D34" s="6">
@@ -1460,7 +1441,7 @@
       <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="17">
         <v>0.92869409617139798</v>
       </c>
       <c r="G34" s="2">
@@ -1474,7 +1455,7 @@
       <c r="B35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="6">
         <v>48</v>
       </c>
       <c r="D35" s="6">
@@ -1483,7 +1464,7 @@
       <c r="E35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="17">
         <v>0.93157183024290802</v>
       </c>
       <c r="G35" s="2">
@@ -1497,7 +1478,7 @@
       <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="6">
         <v>48</v>
       </c>
       <c r="D36" s="6">
@@ -1506,7 +1487,7 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="17">
         <v>0.93143196336564904</v>
       </c>
       <c r="G36" s="2">
@@ -1520,7 +1501,7 @@
       <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="6">
         <v>48</v>
       </c>
       <c r="D37" s="6">
@@ -1529,7 +1510,7 @@
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="17">
         <v>0.93143196336564904</v>
       </c>
       <c r="G37" s="2">
@@ -1543,16 +1524,16 @@
       <c r="B38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="6">
         <v>48</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="6">
         <v>3</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="17">
         <v>0.96337124498028603</v>
       </c>
       <c r="G38" s="2">
@@ -1566,16 +1547,16 @@
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="6">
         <v>48</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="6">
         <v>3</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="17">
         <v>0.96499614082452501</v>
       </c>
       <c r="G39" s="2">
@@ -1589,16 +1570,16 @@
       <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="6">
         <v>48</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="6">
         <v>3</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="17">
         <v>0.96499614082452501</v>
       </c>
       <c r="G40" s="2">
@@ -1612,16 +1593,16 @@
       <c r="B41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="6">
         <v>48</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="6">
         <v>4</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="17">
         <v>0.97274956399302304</v>
       </c>
       <c r="G41" s="2">
@@ -1635,16 +1616,16 @@
       <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="6">
         <v>48</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="6">
         <v>4</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="17">
         <v>0.97512440881602802</v>
       </c>
       <c r="G42" s="2">
@@ -1658,16 +1639,16 @@
       <c r="B43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="6">
         <v>48</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="6">
         <v>4</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="17">
         <v>0.97512440881602802</v>
       </c>
       <c r="G43" s="2">
@@ -1681,16 +1662,16 @@
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="6">
         <v>48</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="6">
         <v>5</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="17">
         <v>0.97712497104879104</v>
       </c>
       <c r="G44" s="2">
@@ -1704,16 +1685,16 @@
       <c r="B45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="6">
         <v>48</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="6">
         <v>5</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="17">
         <v>0.97774999860937495</v>
       </c>
       <c r="G45" s="2">
@@ -1727,16 +1708,16 @@
       <c r="B46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="6">
         <v>48</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="6">
         <v>5</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="17">
         <v>0.97774999860937495</v>
       </c>
       <c r="G46" s="2">
@@ -1750,7 +1731,7 @@
       <c r="B47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="6">
         <v>80</v>
       </c>
       <c r="D47" s="6">
@@ -1759,10 +1740,10 @@
       <c r="E47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="17">
         <v>0.93294262822736196</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="2">
         <v>0.93300000000000005</v>
       </c>
     </row>
@@ -1773,7 +1754,7 @@
       <c r="B48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="6">
         <v>80</v>
       </c>
       <c r="D48" s="6">
@@ -1782,10 +1763,10 @@
       <c r="E48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="17">
         <v>0.93432023847257994</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="2">
         <v>0.93437499999999996</v>
       </c>
     </row>
@@ -1796,7 +1777,7 @@
       <c r="B49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="6">
         <v>80</v>
       </c>
       <c r="D49" s="6">
@@ -1805,10 +1786,10 @@
       <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="17">
         <v>0.93432023847257994</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="2">
         <v>0.93437499999999996</v>
       </c>
     </row>
@@ -1819,7 +1800,7 @@
       <c r="B50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="6">
         <v>80</v>
       </c>
       <c r="D50" s="6">
@@ -1828,10 +1809,10 @@
       <c r="E50" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="17">
         <v>0.92680857764059199</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="2">
         <v>0.926875</v>
       </c>
     </row>
@@ -1842,7 +1823,7 @@
       <c r="B51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="6">
         <v>80</v>
       </c>
       <c r="D51" s="6">
@@ -1851,10 +1832,10 @@
       <c r="E51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="17">
         <v>0.92918303813649805</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="2">
         <v>0.92925000000000002</v>
       </c>
     </row>
@@ -1865,7 +1846,7 @@
       <c r="B52" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="6">
         <v>80</v>
       </c>
       <c r="D52" s="6">
@@ -1874,10 +1855,10 @@
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="17">
         <v>0.92918303813649805</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="2">
         <v>0.92925000000000002</v>
       </c>
     </row>
@@ -1888,19 +1869,19 @@
       <c r="B53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="6">
         <v>80</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="6">
         <v>3</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="17">
         <v>0.96136977948785596</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="2">
         <v>0.96137499999999998</v>
       </c>
     </row>
@@ -1911,19 +1892,19 @@
       <c r="B54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="6">
         <v>80</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="6">
         <v>3</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="17">
         <v>0.96286908167972196</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="2">
         <v>0.96287500000000004</v>
       </c>
     </row>
@@ -1934,19 +1915,19 @@
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="6">
         <v>80</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="6">
         <v>3</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="17">
         <v>0.96286908167972196</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="2">
         <v>0.96287500000000004</v>
       </c>
     </row>
@@ -1957,19 +1938,19 @@
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="6">
         <v>80</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="6">
         <v>4</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="17">
         <v>0.97487457247514697</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="2">
         <v>0.97487500000000005</v>
       </c>
     </row>
@@ -1980,19 +1961,19 @@
       <c r="B57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="6">
         <v>80</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="6">
         <v>4</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="17">
         <v>0.976124543008831</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="2">
         <v>0.97612500000000002</v>
       </c>
     </row>
@@ -2003,19 +1984,19 @@
       <c r="B58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="6">
         <v>80</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="6">
         <v>4</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="17">
         <v>0.976124543008831</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="2">
         <v>0.97612500000000002</v>
       </c>
     </row>
@@ -2026,19 +2007,19 @@
       <c r="B59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="6">
         <v>80</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="6">
         <v>5</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="17">
         <v>0.97637499963085905</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="2">
         <v>0.97637499999999999</v>
       </c>
     </row>
@@ -2049,19 +2030,19 @@
       <c r="B60" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="6">
         <v>80</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="6">
         <v>5</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="17">
         <v>0.97737499681835904</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="2">
         <v>0.97737499999999999</v>
       </c>
     </row>
@@ -2072,19 +2053,19 @@
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="6">
         <v>80</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="6">
         <v>5</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="17">
         <v>0.97737499681835904</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="2">
         <v>0.97737499999999999</v>
       </c>
     </row>
@@ -2095,7 +2076,7 @@
       <c r="B62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="6">
         <v>120</v>
       </c>
       <c r="D62" s="6">
@@ -2104,10 +2085,10 @@
       <c r="E62" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="17">
         <v>0.93419175559068202</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="2">
         <v>0.93425000000000002</v>
       </c>
     </row>
@@ -2118,7 +2099,7 @@
       <c r="B63" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="6">
         <v>120</v>
       </c>
       <c r="D63" s="6">
@@ -2127,10 +2108,10 @@
       <c r="E63" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="17">
         <v>0.93618966333854003</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="2">
         <v>0.93625000000000003</v>
       </c>
     </row>
@@ -2141,7 +2122,7 @@
       <c r="B64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="6">
         <v>120</v>
       </c>
       <c r="D64" s="6">
@@ -2150,10 +2131,10 @@
       <c r="E64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="17">
         <v>0.93618966333854003</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="2">
         <v>0.93625000000000003</v>
       </c>
     </row>
@@ -2164,7 +2145,7 @@
       <c r="B65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="6">
         <v>120</v>
       </c>
       <c r="D65" s="6">
@@ -2173,10 +2154,10 @@
       <c r="E65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="17">
         <v>0.92616211445673202</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="2">
         <v>0.92625000000000002</v>
       </c>
     </row>
@@ -2187,7 +2168,7 @@
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="6">
         <v>120</v>
       </c>
       <c r="D66" s="6">
@@ -2196,10 +2177,10 @@
       <c r="E66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="17">
         <v>0.92803621355403798</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="2">
         <v>0.92812499999999998</v>
       </c>
     </row>
@@ -2210,7 +2191,7 @@
       <c r="B67" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="6">
         <v>120</v>
       </c>
       <c r="D67" s="6">
@@ -2219,10 +2200,10 @@
       <c r="E67" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="17">
         <v>0.92803621355403798</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="2">
         <v>0.92812499999999998</v>
       </c>
     </row>
@@ -2233,19 +2214,19 @@
       <c r="B68" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="6">
         <v>120</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="6">
         <v>3</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="17">
         <v>0.95999579705842797</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="2">
         <v>0.96</v>
       </c>
     </row>
@@ -2256,19 +2237,19 @@
       <c r="B69" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="6">
         <v>120</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="6">
         <v>3</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="17">
         <v>0.95924257195873897</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="2">
         <v>0.95925000000000005</v>
       </c>
     </row>
@@ -2279,19 +2260,19 @@
       <c r="B70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="6">
         <v>120</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="6">
         <v>3</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="17">
         <v>0.95924257195873897</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="2">
         <v>0.95925000000000005</v>
       </c>
     </row>
@@ -2302,19 +2283,19 @@
       <c r="B71" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="6">
         <v>120</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="6">
         <v>4</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="17">
         <v>0.97137417298196604</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="2">
         <v>0.97137499999999999</v>
       </c>
     </row>
@@ -2325,19 +2306,19 @@
       <c r="B72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="6">
         <v>120</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="6">
         <v>4</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="17">
         <v>0.97212419465056099</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="2">
         <v>0.97212500000000002</v>
       </c>
     </row>
@@ -2348,19 +2329,19 @@
       <c r="B73" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="6">
         <v>120</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="6">
         <v>4</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="17">
         <v>0.97212419465056099</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="2">
         <v>0.97212500000000002</v>
       </c>
     </row>
@@ -2371,19 +2352,19 @@
       <c r="B74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="6">
         <v>120</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="6">
         <v>5</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="17">
         <v>0.97724998720311695</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="2">
         <v>0.97724999999999995</v>
       </c>
     </row>
@@ -2394,19 +2375,19 @@
       <c r="B75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="6">
         <v>120</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="6">
         <v>5</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="17">
         <v>0.97587495438858496</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="2">
         <v>0.97587500000000005</v>
       </c>
     </row>
@@ -2417,19 +2398,19 @@
       <c r="B76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="6">
         <v>120</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="6">
         <v>5</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="17">
         <v>0.97587495438858496</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="2">
         <v>0.97587500000000005</v>
       </c>
     </row>
@@ -2443,7 +2424,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,8 +2433,8 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2496,10 +2477,10 @@
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="19">
         <v>0.97774999860937495</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="19">
         <v>0.97775000000000001</v>
       </c>
     </row>
@@ -2519,102 +2500,102 @@
       <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="19">
         <v>0.97774999860937495</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="19">
         <v>0.97775000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="6">
         <v>60</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
         <v>80</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>0.97737499681835904</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <v>0.97737499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="6">
         <v>59</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6">
         <v>80</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>0.97737499681835904</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <v>0.97737499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="6">
         <v>30</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="16">
-        <v>24</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>0.97737495722452805</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="20">
         <v>0.97737499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="6">
         <v>29</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="16">
-        <v>24</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6">
         <v>5</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>0.97737495722452805</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="20">
         <v>0.97737499999999999</v>
       </c>
     </row>
@@ -2625,19 +2606,19 @@
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="6">
         <v>120</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="6">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>0.97724998720311695</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="20">
         <v>0.97724999999999995</v>
       </c>
     </row>
@@ -2648,10 +2629,10 @@
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="6">
         <v>48</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="6">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -2660,7 +2641,7 @@
       <c r="F9" s="20">
         <v>0.97712497104879104</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="20">
         <v>0.97712500000000002</v>
       </c>
     </row>
@@ -2671,10 +2652,10 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
-        <v>24</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="6">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6">
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2683,7 +2664,7 @@
       <c r="F10" s="20">
         <v>0.97699998706249203</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="20">
         <v>0.97699999999999998</v>
       </c>
     </row>
@@ -2694,19 +2675,19 @@
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="6">
         <v>80</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="6">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>0.97637499963085905</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
         <v>0.97637499999999999</v>
       </c>
     </row>
@@ -2717,19 +2698,19 @@
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="6">
         <v>80</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="6">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>0.976124543008831</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <v>0.97612500000000002</v>
       </c>
     </row>
@@ -2740,19 +2721,19 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="6">
         <v>80</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="6">
         <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>0.976124543008831</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <v>0.97612500000000002</v>
       </c>
     </row>
@@ -2763,19 +2744,19 @@
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="6">
         <v>120</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="6">
         <v>5</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>0.97587495438858496</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="20">
         <v>0.97587500000000005</v>
       </c>
     </row>
@@ -2786,19 +2767,19 @@
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="6">
         <v>120</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="6">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>0.97587495438858496</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="20">
         <v>0.97587500000000005</v>
       </c>
     </row>
@@ -2809,10 +2790,10 @@
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="6">
         <v>48</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -2821,7 +2802,7 @@
       <c r="F16" s="20">
         <v>0.97512440881602802</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="20">
         <v>0.97512500000000002</v>
       </c>
     </row>
@@ -2832,10 +2813,10 @@
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="6">
         <v>48</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="6">
         <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -2844,7 +2825,7 @@
       <c r="F17" s="20">
         <v>0.97512440881602802</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="20">
         <v>0.97512500000000002</v>
       </c>
     </row>
@@ -2855,19 +2836,19 @@
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="6">
         <v>80</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="6">
         <v>4</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <v>0.97487457247514697</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="20">
         <v>0.97487500000000005</v>
       </c>
     </row>
@@ -2878,10 +2859,10 @@
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="16">
-        <v>24</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="6">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6">
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -2890,7 +2871,7 @@
       <c r="F19" s="20">
         <v>0.97424968455863503</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="20">
         <v>0.97424999999999995</v>
       </c>
     </row>
@@ -2901,10 +2882,10 @@
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="16">
-        <v>24</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="C20" s="6">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6">
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -2913,7 +2894,7 @@
       <c r="F20" s="20">
         <v>0.97424968455863503</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="20">
         <v>0.97424999999999995</v>
       </c>
     </row>
@@ -2924,10 +2905,10 @@
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="6">
         <v>48</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="6">
         <v>4</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2936,7 +2917,7 @@
       <c r="F21" s="20">
         <v>0.97274956399302304</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="20">
         <v>0.97275</v>
       </c>
     </row>
@@ -2947,10 +2928,10 @@
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="16">
-        <v>24</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="C22" s="6">
+        <v>24</v>
+      </c>
+      <c r="D22" s="6">
         <v>4</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -2959,7 +2940,7 @@
       <c r="F22" s="20">
         <v>0.97262464027066298</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="20">
         <v>0.97262499999999996</v>
       </c>
     </row>
@@ -2970,19 +2951,19 @@
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="6">
         <v>120</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="6">
         <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="20">
         <v>0.97212419465056099</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="20">
         <v>0.97212500000000002</v>
       </c>
     </row>
@@ -2993,19 +2974,19 @@
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="6">
         <v>120</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="6">
         <v>4</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="20">
         <v>0.97212419465056099</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="20">
         <v>0.97212500000000002</v>
       </c>
     </row>
@@ -3016,19 +2997,19 @@
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="6">
         <v>120</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="6">
         <v>4</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="20">
         <v>0.97137417298196604</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="20">
         <v>0.97137499999999999</v>
       </c>
     </row>
@@ -3039,10 +3020,10 @@
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="16">
-        <v>24</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C26" s="6">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6">
         <v>3</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -3051,7 +3032,7 @@
       <c r="F26" s="20">
         <v>0.96774780483496603</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="20">
         <v>0.96775</v>
       </c>
     </row>
@@ -3062,19 +3043,19 @@
       <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="6">
         <v>8</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="6">
         <v>5</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="21">
         <v>0.96724933679906999</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="21">
         <v>0.96725000000000005</v>
       </c>
     </row>
@@ -3085,19 +3066,19 @@
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="6">
         <v>8</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="21">
         <v>0.96724933679906999</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="21">
         <v>0.96725000000000005</v>
       </c>
     </row>
@@ -3108,10 +3089,10 @@
       <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="16">
-        <v>24</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="C29" s="6">
+        <v>24</v>
+      </c>
+      <c r="D29" s="6">
         <v>3</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -3120,7 +3101,7 @@
       <c r="F29" s="20">
         <v>0.96724719758834299</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="20">
         <v>0.96725000000000005</v>
       </c>
     </row>
@@ -3131,10 +3112,10 @@
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="16">
-        <v>24</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="C30" s="6">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6">
         <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -3143,7 +3124,7 @@
       <c r="F30" s="20">
         <v>0.96724719758834299</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="20">
         <v>0.96725000000000005</v>
       </c>
     </row>
@@ -3154,19 +3135,19 @@
       <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="6">
         <v>8</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="6">
         <v>5</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="21">
         <v>0.966874129928318</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="21">
         <v>0.96687500000000004</v>
       </c>
     </row>
@@ -3177,19 +3158,19 @@
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="6">
         <v>8</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="6">
         <v>4</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="21">
         <v>0.96662330561124898</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="21">
         <v>0.96662499999999996</v>
       </c>
     </row>
@@ -3200,19 +3181,19 @@
       <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="6">
         <v>8</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="6">
         <v>4</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="21">
         <v>0.96662222077835103</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="21">
         <v>0.96662499999999996</v>
       </c>
     </row>
@@ -3223,19 +3204,19 @@
       <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="6">
         <v>8</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="6">
         <v>4</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="21">
         <v>0.96662222077835103</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="21">
         <v>0.96662499999999996</v>
       </c>
     </row>
@@ -3246,10 +3227,10 @@
       <c r="B35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="6">
         <v>48</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="6">
         <v>3</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -3258,7 +3239,7 @@
       <c r="F35" s="20">
         <v>0.96499614082452501</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="20">
         <v>0.96499999999999997</v>
       </c>
     </row>
@@ -3269,10 +3250,10 @@
       <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="6">
         <v>48</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="6">
         <v>3</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -3281,7 +3262,7 @@
       <c r="F36" s="20">
         <v>0.96499614082452501</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="20">
         <v>0.96499999999999997</v>
       </c>
     </row>
@@ -3292,10 +3273,10 @@
       <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="6">
         <v>48</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="6">
         <v>3</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -3304,7 +3285,7 @@
       <c r="F37" s="20">
         <v>0.96337124498028603</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="20">
         <v>0.96337499999999998</v>
       </c>
     </row>
@@ -3315,19 +3296,19 @@
       <c r="B38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="6">
         <v>80</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="6">
         <v>3</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="20">
         <v>0.96286908167972196</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="20">
         <v>0.96287500000000004</v>
       </c>
     </row>
@@ -3338,19 +3319,19 @@
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="6">
         <v>80</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="6">
         <v>3</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="20">
         <v>0.96286908167972196</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="20">
         <v>0.96287500000000004</v>
       </c>
     </row>
@@ -3361,19 +3342,19 @@
       <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="6">
         <v>80</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="6">
         <v>3</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="20">
         <v>0.96136977948785596</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="20">
         <v>0.96137499999999998</v>
       </c>
     </row>
@@ -3384,19 +3365,19 @@
       <c r="B41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="6">
         <v>120</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="6">
         <v>3</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="20">
         <v>0.95999579705842797</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="20">
         <v>0.96</v>
       </c>
     </row>
@@ -3407,19 +3388,19 @@
       <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="6">
         <v>120</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="6">
         <v>3</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="20">
         <v>0.95924257195873897</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="20">
         <v>0.95925000000000005</v>
       </c>
     </row>
@@ -3430,19 +3411,19 @@
       <c r="B43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="6">
         <v>120</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="6">
         <v>3</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="20">
         <v>0.95924257195873897</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="20">
         <v>0.95925000000000005</v>
       </c>
     </row>
@@ -3453,19 +3434,19 @@
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="6">
         <v>8</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="6">
         <v>3</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="21">
         <v>0.958243475543053</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="21">
         <v>0.95825000000000005</v>
       </c>
     </row>
@@ -3476,19 +3457,19 @@
       <c r="B45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="6">
         <v>8</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="6">
         <v>3</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="21">
         <v>0.958243475543053</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="21">
         <v>0.95825000000000005</v>
       </c>
     </row>
@@ -3499,19 +3480,19 @@
       <c r="B46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="6">
         <v>8</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="6">
         <v>3</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="21">
         <v>0.95761824474554103</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="21">
         <v>0.95762499999999995</v>
       </c>
     </row>
@@ -3522,7 +3503,7 @@
       <c r="B47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="6">
         <v>24</v>
       </c>
       <c r="D47" s="6">
@@ -3534,7 +3515,7 @@
       <c r="F47" s="20">
         <v>0.937580751579975</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="20">
         <v>0.93762500000000004</v>
       </c>
     </row>
@@ -3545,7 +3526,7 @@
       <c r="B48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="6">
         <v>24</v>
       </c>
       <c r="D48" s="6">
@@ -3557,7 +3538,7 @@
       <c r="F48" s="20">
         <v>0.937580751579975</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="20">
         <v>0.93762500000000004</v>
       </c>
     </row>
@@ -3568,7 +3549,7 @@
       <c r="B49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="6">
         <v>24</v>
       </c>
       <c r="D49" s="6">
@@ -3580,7 +3561,7 @@
       <c r="F49" s="20">
         <v>0.93658960808422398</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="20">
         <v>0.93662500000000004</v>
       </c>
     </row>
@@ -3591,7 +3572,7 @@
       <c r="B50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="6">
         <v>120</v>
       </c>
       <c r="D50" s="6">
@@ -3600,10 +3581,10 @@
       <c r="E50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="20">
         <v>0.93618966333854003</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="20">
         <v>0.93625000000000003</v>
       </c>
     </row>
@@ -3614,7 +3595,7 @@
       <c r="B51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="6">
         <v>120</v>
       </c>
       <c r="D51" s="6">
@@ -3623,10 +3604,10 @@
       <c r="E51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="20">
         <v>0.93618966333854003</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="20">
         <v>0.93625000000000003</v>
       </c>
     </row>
@@ -3637,7 +3618,7 @@
       <c r="B52" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="6">
         <v>80</v>
       </c>
       <c r="D52" s="6">
@@ -3646,10 +3627,10 @@
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="20">
         <v>0.93432023847257994</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="20">
         <v>0.93437499999999996</v>
       </c>
     </row>
@@ -3660,7 +3641,7 @@
       <c r="B53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="6">
         <v>80</v>
       </c>
       <c r="D53" s="6">
@@ -3669,10 +3650,10 @@
       <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="20">
         <v>0.93432023847257994</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="20">
         <v>0.93437499999999996</v>
       </c>
     </row>
@@ -3683,7 +3664,7 @@
       <c r="B54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="6">
         <v>120</v>
       </c>
       <c r="D54" s="6">
@@ -3692,10 +3673,10 @@
       <c r="E54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="20">
         <v>0.93419175559068202</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="20">
         <v>0.93425000000000002</v>
       </c>
     </row>
@@ -3715,10 +3696,10 @@
       <c r="E55" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="21">
         <v>0.93383568909496595</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="21">
         <v>0.93387500000000001</v>
       </c>
     </row>
@@ -3729,7 +3710,7 @@
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="6">
         <v>80</v>
       </c>
       <c r="D56" s="6">
@@ -3738,10 +3719,10 @@
       <c r="E56" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="20">
         <v>0.93294262822736196</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="20">
         <v>0.93300000000000005</v>
       </c>
     </row>
@@ -3761,10 +3742,10 @@
       <c r="E57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="21">
         <v>0.93283259952896103</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="21">
         <v>0.93287500000000001</v>
       </c>
     </row>
@@ -3784,10 +3765,10 @@
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="21">
         <v>0.93283259952896103</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="21">
         <v>0.93287500000000001</v>
       </c>
     </row>
@@ -3798,7 +3779,7 @@
       <c r="B59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="6">
         <v>48</v>
       </c>
       <c r="D59" s="6">
@@ -3810,7 +3791,7 @@
       <c r="F59" s="20">
         <v>0.93157183024290802</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="20">
         <v>0.93162500000000004</v>
       </c>
     </row>
@@ -3821,7 +3802,7 @@
       <c r="B60" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="6">
         <v>48</v>
       </c>
       <c r="D60" s="6">
@@ -3833,7 +3814,7 @@
       <c r="F60" s="20">
         <v>0.93143196336564904</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="20">
         <v>0.93149999999999999</v>
       </c>
     </row>
@@ -3844,7 +3825,7 @@
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="6">
         <v>48</v>
       </c>
       <c r="D61" s="6">
@@ -3856,7 +3837,7 @@
       <c r="F61" s="20">
         <v>0.93143196336564904</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="20">
         <v>0.93149999999999999</v>
       </c>
     </row>
@@ -3867,7 +3848,7 @@
       <c r="B62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="6">
         <v>80</v>
       </c>
       <c r="D62" s="6">
@@ -3876,10 +3857,10 @@
       <c r="E62" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="20">
         <v>0.92918303813649805</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="20">
         <v>0.92925000000000002</v>
       </c>
     </row>
@@ -3890,7 +3871,7 @@
       <c r="B63" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="6">
         <v>80</v>
       </c>
       <c r="D63" s="6">
@@ -3899,10 +3880,10 @@
       <c r="E63" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="20">
         <v>0.92918303813649805</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="20">
         <v>0.92925000000000002</v>
       </c>
     </row>
@@ -3913,7 +3894,7 @@
       <c r="B64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="6">
         <v>48</v>
       </c>
       <c r="D64" s="6">
@@ -3925,7 +3906,7 @@
       <c r="F64" s="20">
         <v>0.928942283369667</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="20">
         <v>0.92900000000000005</v>
       </c>
     </row>
@@ -3936,7 +3917,7 @@
       <c r="B65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="6">
         <v>48</v>
       </c>
       <c r="D65" s="6">
@@ -3948,7 +3929,7 @@
       <c r="F65" s="20">
         <v>0.92869409617139798</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="20">
         <v>0.92874999999999996</v>
       </c>
     </row>
@@ -3959,7 +3940,7 @@
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="6">
         <v>48</v>
       </c>
       <c r="D66" s="6">
@@ -3971,7 +3952,7 @@
       <c r="F66" s="20">
         <v>0.92869409617139798</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="20">
         <v>0.92874999999999996</v>
       </c>
     </row>
@@ -3982,7 +3963,7 @@
       <c r="B67" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="6">
         <v>120</v>
       </c>
       <c r="D67" s="6">
@@ -3991,10 +3972,10 @@
       <c r="E67" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="20">
         <v>0.92803621355403798</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="20">
         <v>0.92812499999999998</v>
       </c>
     </row>
@@ -4005,7 +3986,7 @@
       <c r="B68" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="6">
         <v>120</v>
       </c>
       <c r="D68" s="6">
@@ -4014,10 +3995,10 @@
       <c r="E68" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="20">
         <v>0.92803621355403798</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="20">
         <v>0.92812499999999998</v>
       </c>
     </row>
@@ -4028,7 +4009,7 @@
       <c r="B69" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="6">
         <v>80</v>
       </c>
       <c r="D69" s="6">
@@ -4037,10 +4018,10 @@
       <c r="E69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="20">
         <v>0.92680857764059199</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="20">
         <v>0.926875</v>
       </c>
     </row>
@@ -4051,7 +4032,7 @@
       <c r="B70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="6">
         <v>120</v>
       </c>
       <c r="D70" s="6">
@@ -4060,10 +4041,10 @@
       <c r="E70" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="20">
         <v>0.92616211445673202</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="20">
         <v>0.92625000000000002</v>
       </c>
     </row>
@@ -4074,7 +4055,7 @@
       <c r="B71" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="6">
         <v>24</v>
       </c>
       <c r="D71" s="6">
@@ -4086,7 +4067,7 @@
       <c r="F71" s="20">
         <v>0.91578259113222205</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="20">
         <v>0.91587499999999999</v>
       </c>
     </row>
@@ -4097,7 +4078,7 @@
       <c r="B72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="6">
         <v>24</v>
       </c>
       <c r="D72" s="6">
@@ -4109,7 +4090,7 @@
       <c r="F72" s="20">
         <v>0.91578259113222205</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="20">
         <v>0.91587499999999999</v>
       </c>
     </row>
@@ -4120,7 +4101,7 @@
       <c r="B73" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="6">
         <v>24</v>
       </c>
       <c r="D73" s="6">
@@ -4132,7 +4113,7 @@
       <c r="F73" s="20">
         <v>0.91415792901373705</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="20">
         <v>0.91425000000000001</v>
       </c>
     </row>
@@ -4152,10 +4133,10 @@
       <c r="E74" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="21">
         <v>0.88545186114464602</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="21">
         <v>0.88549999999999995</v>
       </c>
     </row>
@@ -4175,10 +4156,10 @@
       <c r="E75" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="21">
         <v>0.885431230095865</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="21">
         <v>0.88549999999999995</v>
       </c>
     </row>
@@ -4198,10 +4179,10 @@
       <c r="E76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="21">
         <v>0.885431230095865</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="21">
         <v>0.88549999999999995</v>
       </c>
     </row>
@@ -4218,7 +4199,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6561,16 +6542,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C68E221-AFFF-48A1-91F3-672A47904AA0}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6613,7 +6595,7 @@
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="4">
         <v>0.95862401667389596</v>
       </c>
       <c r="G2" s="4">
@@ -6636,7 +6618,7 @@
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="4">
         <v>0.956246838834105</v>
       </c>
       <c r="G3" s="4">
@@ -6644,94 +6626,94 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="1">
         <v>19</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="25">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="2">
         <v>0.95537499372460799</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="2">
         <v>0.95537499999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="1">
         <v>38</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="25">
-        <v>24</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="2">
         <v>0.95461963306254105</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="2">
         <v>0.95462499999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="1">
         <v>59</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
         <v>48</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="2">
         <v>0.95337310505384698</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="2">
         <v>0.95337499999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="1">
         <v>31</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="25">
-        <v>24</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="2">
         <v>0.953366342898749</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="2">
         <v>0.95337499999999997</v>
       </c>
     </row>
@@ -6751,7 +6733,7 @@
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="2">
         <v>0.95287478720021002</v>
       </c>
       <c r="G8" s="2">
@@ -6774,7 +6756,7 @@
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="2">
         <v>0.95237349306755403</v>
       </c>
       <c r="G9" s="2">
@@ -6797,7 +6779,7 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="2">
         <v>0.95112472431289796</v>
       </c>
       <c r="G10" s="2">
@@ -6820,7 +6802,7 @@
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="2">
         <v>0.94949938136742096</v>
       </c>
       <c r="G11" s="2">
@@ -6843,7 +6825,7 @@
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="2">
         <v>0.94899070355572301</v>
       </c>
       <c r="G12" s="2">
@@ -6866,7 +6848,7 @@
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="2">
         <v>0.94874651155944301</v>
       </c>
       <c r="G13" s="2">
@@ -6889,7 +6871,7 @@
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="2">
         <v>0.94749179559306096</v>
       </c>
       <c r="G14" s="2">
@@ -6912,7 +6894,7 @@
       <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="2">
         <v>0.94712347236406802</v>
       </c>
       <c r="G15" s="2">
@@ -6935,7 +6917,7 @@
       <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="2">
         <v>0.94648913394976197</v>
       </c>
       <c r="G16" s="2">
@@ -6958,7 +6940,7 @@
       <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="2">
         <v>0.94537475333287002</v>
       </c>
       <c r="G17" s="2">
@@ -6981,7 +6963,7 @@
       <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="2">
         <v>0.94498921788670498</v>
       </c>
       <c r="G18" s="2">
@@ -7004,7 +6986,7 @@
       <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="2">
         <v>0.94486438553272101</v>
       </c>
       <c r="G19" s="2">
@@ -7027,7 +7009,7 @@
       <c r="E20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="2">
         <v>0.94448792265367199</v>
       </c>
       <c r="G20" s="2">
@@ -7050,7 +7032,7 @@
       <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="2">
         <v>0.94399467599388598</v>
       </c>
       <c r="G21" s="2">
@@ -7073,7 +7055,7 @@
       <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="2">
         <v>0.94185693840300599</v>
       </c>
       <c r="G22" s="2">
@@ -7096,7 +7078,7 @@
       <c r="E23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="2">
         <v>0.93999915623813401</v>
       </c>
       <c r="G23" s="2">
@@ -7119,7 +7101,7 @@
       <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="2">
         <v>0.93885491288348999</v>
       </c>
       <c r="G24" s="2">
@@ -7142,7 +7124,7 @@
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="2">
         <v>0.93883081960368997</v>
       </c>
       <c r="G25" s="2">
@@ -7165,7 +7147,7 @@
       <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="2">
         <v>0.93796859660202903</v>
       </c>
       <c r="G26" s="2">
@@ -7188,7 +7170,7 @@
       <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="2">
         <v>0.93787439330462197</v>
       </c>
       <c r="G27" s="2">
@@ -7211,7 +7193,7 @@
       <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="2">
         <v>0.93649046960109406</v>
       </c>
       <c r="G28" s="2">
@@ -7234,7 +7216,7 @@
       <c r="E29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="2">
         <v>0.93510864636495605</v>
       </c>
       <c r="G29" s="2">
@@ -7257,7 +7239,7 @@
       <c r="E30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="2">
         <v>0.93449783433464695</v>
       </c>
       <c r="G30" s="2">
@@ -7280,7 +7262,7 @@
       <c r="E31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="2">
         <v>0.93294648710586503</v>
       </c>
       <c r="G31" s="2">
@@ -7303,7 +7285,7 @@
       <c r="E32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="2">
         <v>0.93233643070826</v>
       </c>
       <c r="G32" s="2">
@@ -7326,7 +7308,7 @@
       <c r="E33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="2">
         <v>0.93019429068110604</v>
       </c>
       <c r="G33" s="2">
@@ -7349,7 +7331,7 @@
       <c r="E34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="2">
         <v>0.92993694324892395</v>
       </c>
       <c r="G34" s="2">
@@ -7372,7 +7354,7 @@
       <c r="E35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="2">
         <v>0.92657392183709497</v>
       </c>
       <c r="G35" s="2">
@@ -7395,7 +7377,7 @@
       <c r="E36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="2">
         <v>0.92643598091238899</v>
       </c>
       <c r="G36" s="2">
@@ -7418,7 +7400,7 @@
       <c r="E37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="2">
         <v>0.92468334004865105</v>
       </c>
       <c r="G37" s="2">
@@ -7441,7 +7423,7 @@
       <c r="E38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="2">
         <v>0.92424279833101597</v>
       </c>
       <c r="G38" s="2">
@@ -7464,7 +7446,7 @@
       <c r="E39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="2">
         <v>0.92405947163001201</v>
       </c>
       <c r="G39" s="2">
@@ -7487,7 +7469,7 @@
       <c r="E40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="2">
         <v>0.92392923517101699</v>
       </c>
       <c r="G40" s="2">
@@ -7510,7 +7492,7 @@
       <c r="E41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="2">
         <v>0.916169438830716</v>
       </c>
       <c r="G41" s="2">
@@ -7533,7 +7515,7 @@
       <c r="E42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="2">
         <v>0.91434448388401601</v>
       </c>
       <c r="G42" s="2">
@@ -7556,7 +7538,7 @@
       <c r="E43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="2">
         <v>0.90959193183644305</v>
       </c>
       <c r="G43" s="2">
@@ -7579,7 +7561,7 @@
       <c r="E44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="2">
         <v>0.90484019381401504</v>
       </c>
       <c r="G44" s="2">
@@ -7602,7 +7584,7 @@
       <c r="E45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="2">
         <v>0.90349420362060495</v>
       </c>
       <c r="G45" s="2">
@@ -7625,7 +7607,7 @@
       <c r="E46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="2">
         <v>0.90049101931449305</v>
       </c>
       <c r="G46" s="2">
@@ -7648,7 +7630,7 @@
       <c r="E47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="2">
         <v>0.90033362443855802</v>
       </c>
       <c r="G47" s="2">
@@ -7671,7 +7653,7 @@
       <c r="E48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="2">
         <v>0.89793621013133196</v>
       </c>
       <c r="G48" s="2">
@@ -7694,7 +7676,7 @@
       <c r="E49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="2">
         <v>0.89649627386585895</v>
       </c>
       <c r="G49" s="2">
@@ -7717,7 +7699,7 @@
       <c r="E50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="2">
         <v>0.89573621111391899</v>
       </c>
       <c r="G50" s="2">
@@ -7740,7 +7722,7 @@
       <c r="E51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="2">
         <v>0.891363863098528</v>
       </c>
       <c r="G51" s="2">
@@ -7763,7 +7745,7 @@
       <c r="E52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="2">
         <v>0.89121376738539904</v>
       </c>
       <c r="G52" s="2">
@@ -7786,7 +7768,7 @@
       <c r="E53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="2">
         <v>0.88922437110774399</v>
       </c>
       <c r="G53" s="2">
@@ -7809,7 +7791,7 @@
       <c r="E54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="2">
         <v>0.889222520261432</v>
       </c>
       <c r="G54" s="2">
@@ -7832,7 +7814,7 @@
       <c r="E55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="2">
         <v>0.88592436072142999</v>
       </c>
       <c r="G55" s="2">
@@ -7855,7 +7837,7 @@
       <c r="E56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="2">
         <v>0.87624993039058496</v>
       </c>
       <c r="G56" s="2">
@@ -7878,7 +7860,7 @@
       <c r="E57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="2">
         <v>0.87308097297939202</v>
       </c>
       <c r="G57" s="2">
@@ -7901,7 +7883,7 @@
       <c r="E58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="2">
         <v>0.862481813219798</v>
       </c>
       <c r="G58" s="2">
@@ -7924,7 +7906,7 @@
       <c r="E59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="2">
         <v>0.85262488716592899</v>
       </c>
       <c r="G59" s="2">
@@ -7947,7 +7929,7 @@
       <c r="E60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="2">
         <v>0.85100503810325601</v>
       </c>
       <c r="G60" s="2">
@@ -7970,7 +7952,7 @@
       <c r="E61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="2">
         <v>0.85070296210199703</v>
       </c>
       <c r="G61" s="2">
@@ -7993,7 +7975,7 @@
       <c r="E62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="2">
         <v>0.84699020737327102</v>
       </c>
       <c r="G62" s="2">
@@ -8016,7 +7998,7 @@
       <c r="E63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="2">
         <v>0.84312046765226001</v>
       </c>
       <c r="G63" s="2">
@@ -8039,7 +8021,7 @@
       <c r="E64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="2">
         <v>0.84256147840407902</v>
       </c>
       <c r="G64" s="2">
@@ -8062,7 +8044,7 @@
       <c r="E65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="2">
         <v>0.83085311397869999</v>
       </c>
       <c r="G65" s="2">
@@ -8085,7 +8067,7 @@
       <c r="E66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="2">
         <v>0.82247954140047697</v>
       </c>
       <c r="G66" s="2">
@@ -8108,7 +8090,7 @@
       <c r="E67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="2">
         <v>0.81368271765341005</v>
       </c>
       <c r="G67" s="2">
@@ -8131,7 +8113,7 @@
       <c r="E68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="2">
         <v>0.80936824800213902</v>
       </c>
       <c r="G68" s="2">
@@ -8154,7 +8136,7 @@
       <c r="E69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="2">
         <v>0.78944639461433097</v>
       </c>
       <c r="G69" s="2">
@@ -8177,7 +8159,7 @@
       <c r="E70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="2">
         <v>0.78513439274014696</v>
       </c>
       <c r="G70" s="2">
@@ -8200,7 +8182,7 @@
       <c r="E71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="2">
         <v>0.77486282424106001</v>
       </c>
       <c r="G71" s="2">
@@ -8223,7 +8205,7 @@
       <c r="E72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="2">
         <v>0.76917582398249096</v>
       </c>
       <c r="G72" s="2">
@@ -8246,7 +8228,7 @@
       <c r="E73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="2">
         <v>0.75922973253802195</v>
       </c>
       <c r="G73" s="2">
@@ -8269,7 +8251,7 @@
       <c r="E74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="2">
         <v>0.74747371740463897</v>
       </c>
       <c r="G74" s="2">
@@ -8292,7 +8274,7 @@
       <c r="E75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="2">
         <v>0.73193791778763595</v>
       </c>
       <c r="G75" s="2">
@@ -8315,7 +8297,7 @@
       <c r="E76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="2">
         <v>0.72831742146479195</v>
       </c>
       <c r="G76" s="2">
@@ -8338,7 +8320,7 @@
       <c r="E77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="2">
         <v>0.72452259319664902</v>
       </c>
       <c r="G77" s="2">
@@ -8361,7 +8343,7 @@
       <c r="E78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="2">
         <v>0.65470961078266798</v>
       </c>
       <c r="G78" s="2">
@@ -8384,7 +8366,7 @@
       <c r="E79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="2">
         <v>0.62495948474567298</v>
       </c>
       <c r="G79" s="2">
@@ -8407,7 +8389,7 @@
       <c r="E80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="2">
         <v>0.62182518869347303</v>
       </c>
       <c r="G80" s="2">
@@ -8430,7 +8412,7 @@
       <c r="E81" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="2">
         <v>0.61712937182270899</v>
       </c>
       <c r="G81" s="2">
@@ -8453,7 +8435,7 @@
       <c r="E82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="2">
         <v>0.59979403668070397</v>
       </c>
       <c r="G82" s="2">
@@ -8476,7 +8458,7 @@
       <c r="E83" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="2">
         <v>0.57259133488936198</v>
       </c>
       <c r="G83" s="2">
@@ -8499,7 +8481,7 @@
       <c r="E84" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="2">
         <v>0.549993671786009</v>
       </c>
       <c r="G84" s="2">
@@ -8522,7 +8504,7 @@
       <c r="E85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="2">
         <v>0.53943756786972197</v>
       </c>
       <c r="G85" s="2">
@@ -8545,7 +8527,7 @@
       <c r="E86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="2">
         <v>0.53553552927132897</v>
       </c>
       <c r="G86" s="2">
@@ -8568,7 +8550,7 @@
       <c r="E87" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="2">
         <v>0.52724420874155697</v>
       </c>
       <c r="G87" s="2">
@@ -8591,7 +8573,7 @@
       <c r="E88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="2">
         <v>0.499987987699404</v>
       </c>
       <c r="G88" s="2">
@@ -8614,7 +8596,7 @@
       <c r="E89" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="2">
         <v>0.49308388053676699</v>
       </c>
       <c r="G89" s="2">
@@ -8637,7 +8619,7 @@
       <c r="E90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="2">
         <v>0.48221786165332398</v>
       </c>
       <c r="G90" s="2">
@@ -8660,7 +8642,7 @@
       <c r="E91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="2">
         <v>0.478481568486394</v>
       </c>
       <c r="G91" s="2">
@@ -8683,7 +8665,7 @@
       <c r="E92" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="2">
         <v>0.47746538161207602</v>
       </c>
       <c r="G92" s="2">
@@ -8706,7 +8688,7 @@
       <c r="E93" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="2">
         <v>0.44029463130910701</v>
       </c>
       <c r="G93" s="2">
@@ -8729,7 +8711,7 @@
       <c r="E94" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="2">
         <v>0.43643188812021799</v>
       </c>
       <c r="G94" s="2">
@@ -8752,7 +8734,7 @@
       <c r="E95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="2">
         <v>0.43021122910532</v>
       </c>
       <c r="G95" s="2">
@@ -8775,7 +8757,7 @@
       <c r="E96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="2">
         <v>0.42925334360615502</v>
       </c>
       <c r="G96" s="2">
@@ -8798,7 +8780,7 @@
       <c r="E97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="2">
         <v>0.41943194493160002</v>
       </c>
       <c r="G97" s="2">
@@ -8821,7 +8803,7 @@
       <c r="E98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="2">
         <v>0.415960980214239</v>
       </c>
       <c r="G98" s="2">
@@ -8844,7 +8826,7 @@
       <c r="E99" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="2">
         <v>0.41475555529983799</v>
       </c>
       <c r="G99" s="2">
@@ -8867,7 +8849,7 @@
       <c r="E100" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="2">
         <v>0.40750838655650001</v>
       </c>
       <c r="G100" s="2">
@@ -8890,7 +8872,7 @@
       <c r="E101" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="2">
         <v>0.33333333333333298</v>
       </c>
       <c r="G101" s="2">
@@ -8909,8 +8891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04F4E5D-4E04-4CDB-8260-4C1D648967D2}">
   <dimension ref="A2:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8933,59 +8915,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="V2" s="14" t="s">
@@ -8993,59 +8974,58 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="9">
         <v>0.95</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="11">
         <v>0.99862499999999998</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="11">
         <v>0.99862499999999998</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="11">
         <v>7.7549999999999997E-3</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="1">
         <v>39</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="25">
-        <v>24</v>
-      </c>
-      <c r="K3" s="25">
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1">
         <v>5</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="18">
         <v>0.95862401667389596</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="2">
         <v>0.95862499999999995</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="16">
+      <c r="P3" s="6">
         <v>45</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="16">
+      <c r="Q3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="6">
         <v>48</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="6">
         <v>5</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="17">
         <v>0.97774999860937495</v>
       </c>
       <c r="V3" s="4">
@@ -9053,59 +9033,58 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="9">
         <v>0.85</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="11">
         <v>0.99837500000000001</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="11">
         <v>0.99837500000000001</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="11">
         <v>8.3580000000000008E-3</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="1">
         <v>35</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="25">
-        <v>24</v>
-      </c>
-      <c r="K4" s="25">
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="18">
         <v>0.956246838834105</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="2">
         <v>0.95625000000000004</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="16">
+      <c r="P4" s="6">
         <v>44</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="16">
+      <c r="Q4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="6">
         <v>48</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="6">
         <v>5</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="17">
         <v>0.97774999860937495</v>
       </c>
       <c r="V4" s="4">

--- a/Rekap Hasil/Hasil Analisis.xlsx
+++ b/Rekap Hasil/Hasil Analisis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clone Repo\Concreate-Cracking-Classification\Rekap Hasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C84B7E-7500-493D-A146-E2DA3B15CCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A9C13B-6A8F-408A-BC50-1A26551B5AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MobileNet" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="Support Vector Machine (Sorted)" sheetId="5" r:id="rId5"/>
     <sheet name="Best Model" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Random Forest'!$A$1:$H$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Support Vector Machine'!$A$1:$G$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -117,6 +121,12 @@
   <si>
     <t>Sigmoid</t>
   </si>
+  <si>
+    <t>Average Prediction Time (s)</t>
+  </si>
+  <si>
+    <t>Avg Prediction Time (s)</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -205,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -237,9 +247,12 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +536,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1142A-C9D8-474B-A418-56C12469D36B}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,9 +677,10 @@
     <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -688,8 +702,11 @@
       <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -711,8 +728,11 @@
       <c r="G2" s="7">
         <v>0.88549999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="22">
+        <v>1.15153118371963E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -734,8 +754,11 @@
       <c r="G3" s="7">
         <v>0.88549999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="22">
+        <v>1.1912191480398101E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -757,8 +780,11 @@
       <c r="G4" s="7">
         <v>0.88549999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="22">
+        <v>1.1601088792085599E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -780,8 +806,11 @@
       <c r="G5" s="7">
         <v>0.93387500000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="22">
+        <v>1.26789557933807E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -803,8 +832,11 @@
       <c r="G6" s="7">
         <v>0.93287500000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="22">
+        <v>1.21833465099334E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -826,8 +858,11 @@
       <c r="G7" s="7">
         <v>0.93287500000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="22">
+        <v>1.1969287782907401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -849,8 +884,11 @@
       <c r="G8" s="7">
         <v>0.95762499999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="22">
+        <v>1.1962731450796101E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -872,8 +910,11 @@
       <c r="G9" s="7">
         <v>0.95825000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="22">
+        <v>1.1954142183065401E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -895,8 +936,11 @@
       <c r="G10" s="7">
         <v>0.95825000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="22">
+        <v>1.1824031621217699E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -918,8 +962,11 @@
       <c r="G11" s="7">
         <v>0.96662499999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="22">
+        <v>1.3380921930074599E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -941,8 +988,11 @@
       <c r="G12" s="7">
         <v>0.96662499999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="22">
+        <v>1.2245896041393201E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -964,8 +1014,11 @@
       <c r="G13" s="7">
         <v>0.96662499999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="22">
+        <v>1.22906555831432E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -987,8 +1040,11 @@
       <c r="G14" s="7">
         <v>0.96687500000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="22">
+        <v>1.16746979057788E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1010,8 +1066,11 @@
       <c r="G15" s="7">
         <v>0.96725000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="22">
+        <v>1.20626552104949E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1033,8 +1092,11 @@
       <c r="G16" s="7">
         <v>0.96725000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="22">
+        <v>1.15632750093936E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1056,8 +1118,11 @@
       <c r="G17" s="2">
         <v>0.91425000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="22">
+        <v>2.5454937875270801E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1079,8 +1144,11 @@
       <c r="G18" s="2">
         <v>0.91587499999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="22">
+        <v>2.5411699980497301E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1102,8 +1170,11 @@
       <c r="G19" s="2">
         <v>0.91587499999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="22">
+        <v>2.5407958477735498E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1125,8 +1196,11 @@
       <c r="G20" s="2">
         <v>0.93662500000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="22">
+        <v>2.5318526655435498E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1148,8 +1222,11 @@
       <c r="G21" s="2">
         <v>0.93762500000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="22">
+        <v>2.5394184827804499E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1171,8 +1248,11 @@
       <c r="G22" s="2">
         <v>0.93762500000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="22">
+        <v>2.53156396746635E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1194,8 +1274,11 @@
       <c r="G23" s="2">
         <v>0.96775</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="22">
+        <v>2.56156774163246E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1217,8 +1300,11 @@
       <c r="G24" s="2">
         <v>0.96725000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="22">
+        <v>2.5420717120170501E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1240,8 +1326,11 @@
       <c r="G25" s="2">
         <v>0.96725000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="22">
+        <v>2.5628101915121E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1263,8 +1352,11 @@
       <c r="G26" s="2">
         <v>0.97262499999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="22">
+        <v>2.5125466793775499E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1286,8 +1378,11 @@
       <c r="G27" s="2">
         <v>0.97424999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="22">
+        <v>2.53548376262187E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1309,8 +1404,11 @@
       <c r="G28" s="2">
         <v>0.97424999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="22">
+        <v>2.5154387563466999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1332,8 +1430,11 @@
       <c r="G29" s="2">
         <v>0.97699999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="22">
+        <v>2.5222432762384402E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1355,8 +1456,11 @@
       <c r="G30" s="2">
         <v>0.97737499999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="22">
+        <v>2.5362201899290001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1378,8 +1482,11 @@
       <c r="G31" s="2">
         <v>0.97737499999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="22">
+        <v>2.5160631924867598E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1401,8 +1508,11 @@
       <c r="G32" s="2">
         <v>0.92900000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="22">
+        <v>4.8251897096633897E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1424,8 +1534,11 @@
       <c r="G33" s="2">
         <v>0.92874999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="22">
+        <v>4.7967441052198398E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1447,8 +1560,11 @@
       <c r="G34" s="2">
         <v>0.92874999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="22">
+        <v>4.8182830125093397E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1470,8 +1586,11 @@
       <c r="G35" s="2">
         <v>0.93162500000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="22">
+        <v>5.0496948540210702E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1493,8 +1612,11 @@
       <c r="G36" s="2">
         <v>0.93149999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="22">
+        <v>4.9221532642841299E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1516,8 +1638,11 @@
       <c r="G37" s="2">
         <v>0.93149999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="22">
+        <v>4.9298403650522203E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1539,8 +1664,11 @@
       <c r="G38" s="2">
         <v>0.96337499999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="22">
+        <v>4.8958589106798102E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1562,8 +1690,11 @@
       <c r="G39" s="2">
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="22">
+        <v>4.8407209545373898E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1585,8 +1716,11 @@
       <c r="G40" s="2">
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="22">
+        <v>4.9391022562980599E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1608,8 +1742,11 @@
       <c r="G41" s="2">
         <v>0.97275</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="22">
+        <v>4.8988937944173798E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1631,8 +1768,11 @@
       <c r="G42" s="2">
         <v>0.97512500000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="22">
+        <v>4.89828799068927E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1654,8 +1794,11 @@
       <c r="G43" s="2">
         <v>0.97512500000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="22">
+        <v>4.8613930612802503E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1677,8 +1820,11 @@
       <c r="G44" s="2">
         <v>0.97712500000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="22">
+        <v>4.8120931416749897E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1700,8 +1846,11 @@
       <c r="G45" s="2">
         <v>0.97775000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="22">
+        <v>4.7935952335595999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1723,8 +1872,11 @@
       <c r="G46" s="2">
         <v>0.97775000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="22">
+        <v>4.8031751364469501E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1746,8 +1898,11 @@
       <c r="G47" s="2">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="22">
+        <v>7.6723167121410293E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -1769,8 +1924,11 @@
       <c r="G48" s="2">
         <v>0.93437499999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="22">
+        <v>7.6613242536783199E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1792,8 +1950,11 @@
       <c r="G49" s="2">
         <v>0.93437499999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="22">
+        <v>7.6892271369695606E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -1815,8 +1976,11 @@
       <c r="G50" s="2">
         <v>0.926875</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="22">
+        <v>7.9344150364398902E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -1838,8 +2002,11 @@
       <c r="G51" s="2">
         <v>0.92925000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="22">
+        <v>7.6610191702842695E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -1861,8 +2028,11 @@
       <c r="G52" s="2">
         <v>0.92925000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="22">
+        <v>7.8935957700014103E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -1884,8 +2054,11 @@
       <c r="G53" s="2">
         <v>0.96137499999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="22">
+        <v>7.6459360182285302E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -1907,8 +2080,11 @@
       <c r="G54" s="2">
         <v>0.96287500000000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="22">
+        <v>7.6437144935130999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -1930,8 +2106,11 @@
       <c r="G55" s="2">
         <v>0.96287500000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="22">
+        <v>7.6518878072500199E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -1953,8 +2132,11 @@
       <c r="G56" s="2">
         <v>0.97487500000000005</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="22">
+        <v>7.9941272825002602E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -1976,8 +2158,11 @@
       <c r="G57" s="2">
         <v>0.97612500000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="22">
+        <v>7.6118699520826297E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -1999,8 +2184,11 @@
       <c r="G58" s="2">
         <v>0.97612500000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="22">
+        <v>7.9629151940345699E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -2022,8 +2210,11 @@
       <c r="G59" s="2">
         <v>0.97637499999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="22">
+        <v>7.8618735522031705E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -2045,8 +2236,11 @@
       <c r="G60" s="2">
         <v>0.97737499999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="22">
+        <v>7.87438015639782E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -2068,8 +2262,11 @@
       <c r="G61" s="2">
         <v>0.97737499999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="22">
+        <v>7.8702771842479702E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -2091,8 +2288,11 @@
       <c r="G62" s="2">
         <v>0.93425000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="22">
+        <v>0.117105346053838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -2114,8 +2314,11 @@
       <c r="G63" s="2">
         <v>0.93625000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="22">
+        <v>0.117305426061153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -2137,8 +2340,11 @@
       <c r="G64" s="2">
         <v>0.93625000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="22">
+        <v>0.11680065280198999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -2160,8 +2366,11 @@
       <c r="G65" s="2">
         <v>0.92625000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="22">
+        <v>0.121564229696989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -2183,8 +2392,11 @@
       <c r="G66" s="2">
         <v>0.92812499999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="22">
+        <v>0.12152116444706899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -2206,8 +2418,11 @@
       <c r="G67" s="2">
         <v>0.92812499999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="22">
+        <v>0.120713535875082</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -2229,8 +2444,11 @@
       <c r="G68" s="2">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="22">
+        <v>0.114939628064632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -2252,8 +2470,11 @@
       <c r="G69" s="2">
         <v>0.95925000000000005</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="22">
+        <v>0.114870445400476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -2275,8 +2496,11 @@
       <c r="G70" s="2">
         <v>0.95925000000000005</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="22">
+        <v>0.114799717158079</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -2298,8 +2522,11 @@
       <c r="G71" s="2">
         <v>0.97137499999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="22">
+        <v>0.11958955830335601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -2321,8 +2548,11 @@
       <c r="G72" s="2">
         <v>0.97212500000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="22">
+        <v>0.11943785336613599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -2344,8 +2574,11 @@
       <c r="G73" s="2">
         <v>0.97212500000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="22">
+        <v>0.119533821880817</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -2367,8 +2600,11 @@
       <c r="G74" s="2">
         <v>0.97724999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="22">
+        <v>0.113930759847164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -2390,8 +2626,11 @@
       <c r="G75" s="2">
         <v>0.97587500000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="22">
+        <v>0.114035948634147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -2413,18 +2652,30 @@
       <c r="G76" s="2">
         <v>0.97587500000000005</v>
       </c>
+      <c r="H76" s="22">
+        <v>0.114009568035602</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H76" xr:uid="{1FF1142A-C9D8-474B-A418-56C12469D36B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
+      <sortCondition ref="A1:A76"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
+    <sortCondition descending="1" ref="F2:F76"/>
+    <sortCondition descending="1" ref="A2:A76"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34201085-9B98-40E8-8960-CAAC785555F5}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2689,7 @@
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -2460,8 +2711,11 @@
       <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45</v>
       </c>
@@ -2483,8 +2737,11 @@
       <c r="G2" s="19">
         <v>0.97775000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="22">
+        <v>4.8031751364469501E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44</v>
       </c>
@@ -2506,8 +2763,11 @@
       <c r="G3" s="19">
         <v>0.97775000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="22">
+        <v>4.7935952335595999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>60</v>
       </c>
@@ -2529,8 +2789,11 @@
       <c r="G4" s="20">
         <v>0.97737499999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="22">
+        <v>7.8702771842479702E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>59</v>
       </c>
@@ -2552,8 +2815,11 @@
       <c r="G5" s="20">
         <v>0.97737499999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="22">
+        <v>7.87438015639782E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>30</v>
       </c>
@@ -2575,8 +2841,11 @@
       <c r="G6" s="20">
         <v>0.97737499999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="22">
+        <v>2.5160631924867598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>29</v>
       </c>
@@ -2598,8 +2867,11 @@
       <c r="G7" s="20">
         <v>0.97737499999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="22">
+        <v>2.5362201899290001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>73</v>
       </c>
@@ -2621,8 +2893,11 @@
       <c r="G8" s="20">
         <v>0.97724999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="22">
+        <v>0.113930759847164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43</v>
       </c>
@@ -2644,8 +2919,11 @@
       <c r="G9" s="20">
         <v>0.97712500000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="22">
+        <v>4.8120931416749897E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>28</v>
       </c>
@@ -2667,8 +2945,11 @@
       <c r="G10" s="20">
         <v>0.97699999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="22">
+        <v>2.5222432762384402E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>58</v>
       </c>
@@ -2690,8 +2971,11 @@
       <c r="G11" s="20">
         <v>0.97637499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="22">
+        <v>7.8618735522031705E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>57</v>
       </c>
@@ -2713,8 +2997,11 @@
       <c r="G12" s="20">
         <v>0.97612500000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="22">
+        <v>7.9629151940345699E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>56</v>
       </c>
@@ -2736,8 +3023,11 @@
       <c r="G13" s="20">
         <v>0.97612500000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="22">
+        <v>7.6118699520826297E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>75</v>
       </c>
@@ -2759,8 +3049,11 @@
       <c r="G14" s="20">
         <v>0.97587500000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="22">
+        <v>0.114009568035602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>74</v>
       </c>
@@ -2782,8 +3075,11 @@
       <c r="G15" s="20">
         <v>0.97587500000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="22">
+        <v>0.114035948634147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>42</v>
       </c>
@@ -2805,8 +3101,11 @@
       <c r="G16" s="20">
         <v>0.97512500000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="22">
+        <v>4.8613930612802503E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>41</v>
       </c>
@@ -2828,8 +3127,11 @@
       <c r="G17" s="20">
         <v>0.97512500000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="22">
+        <v>4.89828799068927E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>55</v>
       </c>
@@ -2851,8 +3153,11 @@
       <c r="G18" s="20">
         <v>0.97487500000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="22">
+        <v>7.9941272825002602E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>27</v>
       </c>
@@ -2874,8 +3179,11 @@
       <c r="G19" s="20">
         <v>0.97424999999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="22">
+        <v>2.5154387563466999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>26</v>
       </c>
@@ -2897,8 +3205,11 @@
       <c r="G20" s="20">
         <v>0.97424999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="22">
+        <v>2.53548376262187E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>40</v>
       </c>
@@ -2920,8 +3231,11 @@
       <c r="G21" s="20">
         <v>0.97275</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="22">
+        <v>4.8988937944173798E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>25</v>
       </c>
@@ -2943,8 +3257,11 @@
       <c r="G22" s="20">
         <v>0.97262499999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="22">
+        <v>2.5125466793775499E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>72</v>
       </c>
@@ -2966,8 +3283,11 @@
       <c r="G23" s="20">
         <v>0.97212500000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="22">
+        <v>0.119533821880817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>71</v>
       </c>
@@ -2989,8 +3309,11 @@
       <c r="G24" s="20">
         <v>0.97212500000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="22">
+        <v>0.11943785336613599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>70</v>
       </c>
@@ -3012,8 +3335,11 @@
       <c r="G25" s="20">
         <v>0.97137499999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="22">
+        <v>0.11958955830335601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -3035,8 +3361,11 @@
       <c r="G26" s="20">
         <v>0.96775</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="22">
+        <v>2.56156774163246E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>15</v>
       </c>
@@ -3058,8 +3387,11 @@
       <c r="G27" s="21">
         <v>0.96725000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="22">
+        <v>1.15632750093936E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>14</v>
       </c>
@@ -3081,8 +3413,11 @@
       <c r="G28" s="21">
         <v>0.96725000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="22">
+        <v>1.20626552104949E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>24</v>
       </c>
@@ -3104,8 +3439,11 @@
       <c r="G29" s="20">
         <v>0.96725000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="22">
+        <v>2.5628101915121E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>23</v>
       </c>
@@ -3127,8 +3465,11 @@
       <c r="G30" s="20">
         <v>0.96725000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="22">
+        <v>2.5420717120170501E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>13</v>
       </c>
@@ -3150,8 +3491,11 @@
       <c r="G31" s="21">
         <v>0.96687500000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="22">
+        <v>1.16746979057788E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>10</v>
       </c>
@@ -3173,8 +3517,11 @@
       <c r="G32" s="21">
         <v>0.96662499999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="22">
+        <v>1.3380921930074599E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>12</v>
       </c>
@@ -3196,8 +3543,11 @@
       <c r="G33" s="21">
         <v>0.96662499999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="22">
+        <v>1.22906555831432E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>11</v>
       </c>
@@ -3219,8 +3569,11 @@
       <c r="G34" s="21">
         <v>0.96662499999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="22">
+        <v>1.2245896041393201E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>39</v>
       </c>
@@ -3242,8 +3595,11 @@
       <c r="G35" s="20">
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="22">
+        <v>4.9391022562980599E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>38</v>
       </c>
@@ -3265,8 +3621,11 @@
       <c r="G36" s="20">
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="22">
+        <v>4.8407209545373898E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>37</v>
       </c>
@@ -3288,8 +3647,11 @@
       <c r="G37" s="20">
         <v>0.96337499999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="22">
+        <v>4.8958589106798102E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>54</v>
       </c>
@@ -3311,8 +3673,11 @@
       <c r="G38" s="20">
         <v>0.96287500000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="22">
+        <v>7.6518878072500199E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>53</v>
       </c>
@@ -3334,8 +3699,11 @@
       <c r="G39" s="20">
         <v>0.96287500000000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="22">
+        <v>7.6437144935130999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>52</v>
       </c>
@@ -3357,8 +3725,11 @@
       <c r="G40" s="20">
         <v>0.96137499999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="22">
+        <v>7.6459360182285302E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>67</v>
       </c>
@@ -3380,8 +3751,11 @@
       <c r="G41" s="20">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="22">
+        <v>0.114939628064632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>69</v>
       </c>
@@ -3403,8 +3777,11 @@
       <c r="G42" s="20">
         <v>0.95925000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="22">
+        <v>0.114799717158079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>68</v>
       </c>
@@ -3426,8 +3803,11 @@
       <c r="G43" s="20">
         <v>0.95925000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="22">
+        <v>0.114870445400476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>9</v>
       </c>
@@ -3449,8 +3829,11 @@
       <c r="G44" s="21">
         <v>0.95825000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="22">
+        <v>1.1824031621217699E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>8</v>
       </c>
@@ -3472,8 +3855,11 @@
       <c r="G45" s="21">
         <v>0.95825000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="22">
+        <v>1.1954142183065401E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>7</v>
       </c>
@@ -3495,8 +3881,11 @@
       <c r="G46" s="21">
         <v>0.95762499999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="22">
+        <v>1.1962731450796101E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>21</v>
       </c>
@@ -3518,8 +3907,11 @@
       <c r="G47" s="20">
         <v>0.93762500000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="22">
+        <v>2.53156396746635E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>20</v>
       </c>
@@ -3541,8 +3933,11 @@
       <c r="G48" s="20">
         <v>0.93762500000000004</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="22">
+        <v>2.5394184827804499E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>19</v>
       </c>
@@ -3564,8 +3959,11 @@
       <c r="G49" s="20">
         <v>0.93662500000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="22">
+        <v>2.5318526655435498E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>63</v>
       </c>
@@ -3587,8 +3985,11 @@
       <c r="G50" s="20">
         <v>0.93625000000000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="22">
+        <v>0.11680065280198999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>62</v>
       </c>
@@ -3610,8 +4011,11 @@
       <c r="G51" s="20">
         <v>0.93625000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="22">
+        <v>0.117305426061153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>48</v>
       </c>
@@ -3633,8 +4037,11 @@
       <c r="G52" s="20">
         <v>0.93437499999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="22">
+        <v>7.6892271369695606E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>47</v>
       </c>
@@ -3656,8 +4063,11 @@
       <c r="G53" s="20">
         <v>0.93437499999999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="22">
+        <v>7.6613242536783199E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>61</v>
       </c>
@@ -3679,8 +4089,11 @@
       <c r="G54" s="20">
         <v>0.93425000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="22">
+        <v>0.117105346053838</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>4</v>
       </c>
@@ -3702,8 +4115,11 @@
       <c r="G55" s="21">
         <v>0.93387500000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="22">
+        <v>1.26789557933807E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>46</v>
       </c>
@@ -3725,8 +4141,11 @@
       <c r="G56" s="20">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="22">
+        <v>7.6723167121410293E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>6</v>
       </c>
@@ -3748,8 +4167,11 @@
       <c r="G57" s="21">
         <v>0.93287500000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="22">
+        <v>1.1969287782907401E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>5</v>
       </c>
@@ -3771,8 +4193,11 @@
       <c r="G58" s="21">
         <v>0.93287500000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="22">
+        <v>1.21833465099334E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>34</v>
       </c>
@@ -3794,8 +4219,11 @@
       <c r="G59" s="20">
         <v>0.93162500000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="22">
+        <v>5.0496948540210702E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>36</v>
       </c>
@@ -3817,8 +4245,11 @@
       <c r="G60" s="20">
         <v>0.93149999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="22">
+        <v>4.9298403650522203E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>35</v>
       </c>
@@ -3840,8 +4271,11 @@
       <c r="G61" s="20">
         <v>0.93149999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="22">
+        <v>4.9221532642841299E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>51</v>
       </c>
@@ -3863,8 +4297,11 @@
       <c r="G62" s="20">
         <v>0.92925000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="22">
+        <v>7.8935957700014103E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>50</v>
       </c>
@@ -3886,8 +4323,11 @@
       <c r="G63" s="20">
         <v>0.92925000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="22">
+        <v>7.6610191702842695E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>31</v>
       </c>
@@ -3909,8 +4349,11 @@
       <c r="G64" s="20">
         <v>0.92900000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="22">
+        <v>4.8251897096633897E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>33</v>
       </c>
@@ -3932,8 +4375,11 @@
       <c r="G65" s="20">
         <v>0.92874999999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="22">
+        <v>4.8182830125093397E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>32</v>
       </c>
@@ -3955,8 +4401,11 @@
       <c r="G66" s="20">
         <v>0.92874999999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="22">
+        <v>4.7967441052198398E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3978,8 +4427,11 @@
       <c r="G67" s="20">
         <v>0.92812499999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="22">
+        <v>0.120713535875082</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>65</v>
       </c>
@@ -4001,8 +4453,11 @@
       <c r="G68" s="20">
         <v>0.92812499999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="22">
+        <v>0.12152116444706899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>49</v>
       </c>
@@ -4024,8 +4479,11 @@
       <c r="G69" s="20">
         <v>0.926875</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="22">
+        <v>7.9344150364398902E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>64</v>
       </c>
@@ -4047,8 +4505,11 @@
       <c r="G70" s="20">
         <v>0.92625000000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="22">
+        <v>0.121564229696989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>18</v>
       </c>
@@ -4070,8 +4531,11 @@
       <c r="G71" s="20">
         <v>0.91587499999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="22">
+        <v>2.5407958477735498E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>17</v>
       </c>
@@ -4093,8 +4557,11 @@
       <c r="G72" s="20">
         <v>0.91587499999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="22">
+        <v>2.5411699980497301E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>16</v>
       </c>
@@ -4116,8 +4583,11 @@
       <c r="G73" s="20">
         <v>0.91425000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="22">
+        <v>2.5454937875270801E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -4139,8 +4609,11 @@
       <c r="G74" s="21">
         <v>0.88549999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="22">
+        <v>1.15153118371963E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>3</v>
       </c>
@@ -4162,8 +4635,11 @@
       <c r="G75" s="21">
         <v>0.88549999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="22">
+        <v>1.1601088792085599E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>2</v>
       </c>
@@ -4184,6 +4660,9 @@
       </c>
       <c r="G76" s="21">
         <v>0.88549999999999995</v>
+      </c>
+      <c r="H76" s="22">
+        <v>1.1912191480398101E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4196,10 +4675,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12EFB7-CBBC-4E85-B4DA-69DDA97BC6A5}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,7 +4689,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -4232,10 +4711,13 @@
       <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -4244,21 +4726,24 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
-        <v>0.76917582398249096</v>
+        <v>0.95537499372460799</v>
       </c>
       <c r="G2" s="1">
-        <v>0.76937500000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.95537499999999997</v>
+      </c>
+      <c r="H2">
+        <v>9.3844381272792793E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -4267,21 +4752,24 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1">
-        <v>0.85070296210199703</v>
+        <v>0.95287478720021002</v>
       </c>
       <c r="G3" s="1">
-        <v>0.85075000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.95287500000000003</v>
+      </c>
+      <c r="H3">
+        <v>9.2127393782138797E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -4290,21 +4778,24 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1">
-        <v>0.84699020737327102</v>
+        <v>0.95112472431289796</v>
       </c>
       <c r="G4" s="1">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.951125</v>
+      </c>
+      <c r="H4">
+        <v>9.2541105151176407E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -4313,21 +4804,24 @@
         <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
-        <v>0.61712937182270899</v>
+        <v>0.94949938136742096</v>
       </c>
       <c r="G5" s="1">
-        <v>0.61724999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="H5">
+        <v>9.2117987275123596E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -4336,21 +4830,24 @@
         <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>0.862481813219798</v>
+        <v>0.94749179559306096</v>
       </c>
       <c r="G6" s="1">
-        <v>0.86250000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="H6">
+        <v>9.1456187963485699E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -4359,19 +4856,22 @@
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>0.92405947163001201</v>
+        <v>0.94498921788670498</v>
       </c>
       <c r="G7" s="1">
-        <v>0.92412499999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H7">
+        <v>9.0041422545909799E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4393,10 +4893,13 @@
       <c r="G8" s="1">
         <v>0.92662500000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>9.0065324902534397E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -4408,18 +4911,21 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1">
-        <v>0.33333333333333298</v>
+        <v>0.92405947163001201</v>
       </c>
       <c r="G9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.92412499999999997</v>
+      </c>
+      <c r="H9">
+        <v>9.0472413003444604E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -4428,21 +4934,24 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1">
-        <v>0.89649627386585895</v>
+        <v>0.91434448388401601</v>
       </c>
       <c r="G10" s="1">
-        <v>0.89649999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.91437500000000005</v>
+      </c>
+      <c r="H10">
+        <v>8.9915891885757396E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -4451,21 +4960,24 @@
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1">
-        <v>0.94498921788670498</v>
+        <v>0.90349420362060495</v>
       </c>
       <c r="G11" s="1">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="H11">
+        <v>8.9972371757030493E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -4477,18 +4989,21 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
-        <v>0.94749179559306096</v>
+        <v>0.89649627386585895</v>
       </c>
       <c r="G12" s="1">
-        <v>0.94750000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="H12">
+        <v>9.6545281112194008E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -4497,21 +5012,24 @@
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1">
-        <v>0.42925334360615502</v>
+        <v>0.862481813219798</v>
       </c>
       <c r="G13" s="1">
-        <v>0.53774999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="H13">
+        <v>9.4314416944980602E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -4520,21 +5038,24 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1">
-        <v>0.90349420362060495</v>
+        <v>0.85070296210199703</v>
       </c>
       <c r="G14" s="1">
-        <v>0.90349999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85075000000000001</v>
+      </c>
+      <c r="H14">
+        <v>9.3408426940441106E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -4543,21 +5064,24 @@
         <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1">
-        <v>0.94949938136742096</v>
+        <v>0.84699020737327102</v>
       </c>
       <c r="G15" s="1">
-        <v>0.94950000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="H15">
+        <v>9.3064932823181106E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -4566,19 +5090,22 @@
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1">
-        <v>0.95112472431289796</v>
+        <v>0.76917582398249096</v>
       </c>
       <c r="G16" s="1">
-        <v>0.951125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.76937500000000003</v>
+      </c>
+      <c r="H16">
+        <v>9.2564955353736794E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4600,10 +5127,13 @@
       <c r="G17" s="1">
         <v>0.622</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>9.5907673835754301E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -4612,21 +5142,24 @@
         <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1">
-        <v>0.91434448388401601</v>
+        <v>0.61712937182270899</v>
       </c>
       <c r="G18" s="1">
-        <v>0.91437500000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.61724999999999997</v>
+      </c>
+      <c r="H18">
+        <v>1.0113450825214299E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -4635,21 +5168,24 @@
         <v>8</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1">
-        <v>0.95287478720021002</v>
+        <v>0.42925334360615502</v>
       </c>
       <c r="G19" s="1">
-        <v>0.95287500000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.53774999999999995</v>
+      </c>
+      <c r="H19">
+        <v>1.0057932376861501E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -4661,18 +5197,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1">
-        <v>0.95537499372460799</v>
+        <v>0.499987987699404</v>
       </c>
       <c r="G20" s="1">
-        <v>0.95537499999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="H20">
+        <v>9.8241818547248807E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -4681,136 +5220,154 @@
         <v>8</v>
       </c>
       <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>9.9111781120300203E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.499987987699404</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.50049999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1">
-        <v>0.77486282424106001</v>
+        <v>0.95862401667389596</v>
       </c>
       <c r="G22" s="1">
-        <v>0.77512499999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.95862499999999995</v>
+      </c>
+      <c r="H22">
+        <v>2.5101822108030299E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.956246838834105</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.95625000000000004</v>
+      </c>
+      <c r="H23">
+        <v>2.4047244220972E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>24</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F24" s="1">
+        <v>0.95461963306254105</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.95462499999999995</v>
+      </c>
+      <c r="H24">
+        <v>2.4103595286607701E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.953366342898749</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.95337499999999997</v>
+      </c>
+      <c r="H25">
+        <v>2.3853209972381498E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="1">
-        <v>0.88592436072142999</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.88600000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>24</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.889222520261432</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.88924999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.65470961078266798</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F26" s="1">
-        <v>0.87308097297939202</v>
+        <v>0.95237349306755403</v>
       </c>
       <c r="G26" s="1">
-        <v>0.87312500000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.95237499999999997</v>
+      </c>
+      <c r="H26">
+        <v>2.6441565692424701E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
@@ -4819,19 +5376,22 @@
         <v>24</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="1">
-        <v>0.92993694324892395</v>
+        <v>0.94899070355572301</v>
       </c>
       <c r="G27" s="1">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="H27">
+        <v>2.4961262822151099E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4853,10 +5413,13 @@
       <c r="G28" s="1">
         <v>0.93887500000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>2.36409487128257E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>20</v>
@@ -4868,16 +5431,19 @@
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" s="1">
-        <v>0.73193791778763595</v>
+        <v>0.92993694324892395</v>
       </c>
       <c r="G29" s="1">
-        <v>0.73287500000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.93</v>
+      </c>
+      <c r="H29">
+        <v>2.3652370512485501E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4899,10 +5465,13 @@
       <c r="G30" s="1">
         <v>0.89575000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>2.36245273649692E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -4911,226 +5480,256 @@
         <v>24</v>
       </c>
       <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.891363863098528</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.89137500000000003</v>
+      </c>
+      <c r="H31">
+        <v>2.6275749474763799E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.88922437110774399</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.88937500000000003</v>
+      </c>
+      <c r="H32">
+        <v>2.4408273518085399E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.889222520261432</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.88924999999999998</v>
+      </c>
+      <c r="H33">
+        <v>2.4159039825201001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.88592436072142999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="H34">
+        <v>2.4177934080362298E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.87308097297939202</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.87312500000000004</v>
+      </c>
+      <c r="H35">
+        <v>2.39694747030735E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.77486282424106001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.77512499999999995</v>
+      </c>
+      <c r="H36">
+        <v>2.55455741286277E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.73193791778763595</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.73287500000000005</v>
+      </c>
+      <c r="H37">
+        <v>2.4434844076633402E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>24</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.65470961078266798</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="H38">
+        <v>2.4160225421190201E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.94899070355572301</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1">
-        <v>24</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.953366342898749</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.95337499999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="1">
-        <v>24</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="1">
         <v>0.53943756786972197</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G39" s="1">
         <v>0.54025000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="1">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="H39">
+        <v>2.42839800715446E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1">
         <v>4</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.891363863098528</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.89137500000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="1">
-        <v>24</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.95237349306755403</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.95237499999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1">
-        <v>24</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.956246838834105</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.95625000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="1">
-        <v>24</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="1">
         <v>0.47746538161207602</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G40" s="1">
         <v>0.47825000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="1">
-        <v>24</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.88922437110774399</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.88937500000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="1">
-        <v>24</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.95461963306254105</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.95462499999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="1">
-        <v>24</v>
-      </c>
-      <c r="D40" s="1">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.95862401667389596</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.95862499999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>2.4123148381710001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5152,10 +5751,13 @@
       <c r="G41" s="1">
         <v>0.40787499999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>2.4969727843999801E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>20</v>
@@ -5164,21 +5766,24 @@
         <v>48</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1">
-        <v>0.74747371740463897</v>
+        <v>0.95337310505384698</v>
       </c>
       <c r="G42" s="1">
-        <v>0.74850000000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.95337499999999997</v>
+      </c>
+      <c r="H42">
+        <v>5.1492272943258199E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>20</v>
@@ -5187,21 +5792,24 @@
         <v>48</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1">
-        <v>0.89121376738539904</v>
+        <v>0.94874651155944301</v>
       </c>
       <c r="G43" s="1">
-        <v>0.89124999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94874999999999998</v>
+      </c>
+      <c r="H43">
+        <v>4.6938245415687502E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>20</v>
@@ -5210,21 +5818,24 @@
         <v>48</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="1">
-        <v>0.90049101931449305</v>
+        <v>0.94648913394976197</v>
       </c>
       <c r="G44" s="1">
-        <v>0.90049999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="H44">
+        <v>4.6712073653936301E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>20</v>
@@ -5233,21 +5844,24 @@
         <v>48</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F45" s="1">
-        <v>0.57259133488936198</v>
+        <v>0.94537475333287002</v>
       </c>
       <c r="G45" s="1">
-        <v>0.57262500000000005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94537499999999997</v>
+      </c>
+      <c r="H45">
+        <v>4.5839535176754001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>20</v>
@@ -5256,21 +5870,24 @@
         <v>48</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="1">
-        <v>0.84312046765226001</v>
+        <v>0.94486438553272101</v>
       </c>
       <c r="G46" s="1">
-        <v>0.84312500000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94487500000000002</v>
+      </c>
+      <c r="H46">
+        <v>4.5271456241607597E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>20</v>
@@ -5279,19 +5896,22 @@
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F47" s="1">
-        <v>0.92643598091238899</v>
+        <v>0.94448792265367199</v>
       </c>
       <c r="G47" s="1">
-        <v>0.92649999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="H47">
+        <v>5.0535273730754803E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5313,10 +5933,13 @@
       <c r="G48" s="1">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>4.6180569946765899E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>20</v>
@@ -5328,18 +5951,21 @@
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F49" s="1">
-        <v>0.62495948474567298</v>
+        <v>0.92643598091238899</v>
       </c>
       <c r="G49" s="1">
-        <v>0.62562499999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="H49">
+        <v>4.71182513236999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>20</v>
@@ -5348,21 +5974,24 @@
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F50" s="1">
-        <v>0.87624993039058496</v>
+        <v>0.90049101931449305</v>
       </c>
       <c r="G50" s="1">
-        <v>0.87624999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H50">
+        <v>4.5401719868183102E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>20</v>
@@ -5371,21 +6000,24 @@
         <v>48</v>
       </c>
       <c r="D51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="1">
-        <v>0.94448792265367199</v>
+        <v>0.89121376738539904</v>
       </c>
       <c r="G51" s="1">
-        <v>0.94450000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.89124999999999999</v>
+      </c>
+      <c r="H51">
+        <v>4.4992005497217102E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>20</v>
@@ -5397,18 +6029,21 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1">
-        <v>0.94648913394976197</v>
+        <v>0.87624993039058496</v>
       </c>
       <c r="G52" s="1">
-        <v>0.94650000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.87624999999999997</v>
+      </c>
+      <c r="H52">
+        <v>4.8042502909898699E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>20</v>
@@ -5417,21 +6052,24 @@
         <v>48</v>
       </c>
       <c r="D53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F53" s="1">
-        <v>0.49308388053676699</v>
+        <v>0.85100503810325601</v>
       </c>
       <c r="G53" s="1">
-        <v>0.49375000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85112500000000002</v>
+      </c>
+      <c r="H53">
+        <v>4.6644586145877798E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>20</v>
@@ -5440,21 +6078,24 @@
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="1">
-        <v>0.85100503810325601</v>
+        <v>0.84312046765226001</v>
       </c>
       <c r="G54" s="1">
-        <v>0.85112500000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.84312500000000001</v>
+      </c>
+      <c r="H54">
+        <v>4.7591908603906601E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>20</v>
@@ -5463,21 +6104,24 @@
         <v>48</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F55" s="1">
-        <v>0.94537475333287002</v>
+        <v>0.84256147840407902</v>
       </c>
       <c r="G55" s="1">
-        <v>0.94537499999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.84287500000000004</v>
+      </c>
+      <c r="H55">
+        <v>4.6082687675952902E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>20</v>
@@ -5486,21 +6130,24 @@
         <v>48</v>
       </c>
       <c r="D56" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1">
-        <v>0.94874651155944301</v>
+        <v>0.74747371740463897</v>
       </c>
       <c r="G56" s="1">
-        <v>0.94874999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="H56">
+        <v>4.5681158632040003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>20</v>
@@ -5509,21 +6156,24 @@
         <v>48</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="1">
-        <v>0.44029463130910701</v>
+        <v>0.62495948474567298</v>
       </c>
       <c r="G57" s="1">
-        <v>0.441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.62562499999999999</v>
+      </c>
+      <c r="H57">
+        <v>4.6470133632421397E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>20</v>
@@ -5532,21 +6182,24 @@
         <v>48</v>
       </c>
       <c r="D58" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F58" s="1">
-        <v>0.84256147840407902</v>
+        <v>0.57259133488936198</v>
       </c>
       <c r="G58" s="1">
-        <v>0.84287500000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.57262500000000005</v>
+      </c>
+      <c r="H58">
+        <v>4.6622066766023602E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>20</v>
@@ -5555,21 +6208,24 @@
         <v>48</v>
       </c>
       <c r="D59" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F59" s="1">
-        <v>0.94486438553272101</v>
+        <v>0.49308388053676699</v>
       </c>
       <c r="G59" s="1">
-        <v>0.94487500000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.49375000000000002</v>
+      </c>
+      <c r="H59">
+        <v>4.7498013883829099E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>20</v>
@@ -5578,19 +6234,22 @@
         <v>48</v>
       </c>
       <c r="D60" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F60" s="1">
-        <v>0.95337310505384698</v>
+        <v>0.44029463130910701</v>
       </c>
       <c r="G60" s="1">
-        <v>0.95337499999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.441</v>
+      </c>
+      <c r="H60">
+        <v>4.6007554262876497E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5612,10 +6271,13 @@
       <c r="G61" s="1">
         <v>0.419875</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>4.5598732650279999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
@@ -5624,21 +6286,24 @@
         <v>80</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F62" s="1">
-        <v>0.72831742146479195</v>
+        <v>0.94712347236406802</v>
       </c>
       <c r="G62" s="1">
-        <v>0.72962499999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94712499999999999</v>
+      </c>
+      <c r="H62">
+        <v>7.4589934617280904E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>20</v>
@@ -5647,21 +6312,24 @@
         <v>80</v>
       </c>
       <c r="D63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F63" s="1">
-        <v>0.89793621013133196</v>
+        <v>0.94399467599388598</v>
       </c>
       <c r="G63" s="1">
-        <v>0.89800000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H63">
+        <v>7.4807109832763605E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>20</v>
@@ -5670,21 +6338,24 @@
         <v>80</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F64" s="1">
-        <v>0.90484019381401504</v>
+        <v>0.94185693840300599</v>
       </c>
       <c r="G64" s="1">
-        <v>0.90487499999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94187500000000002</v>
+      </c>
+      <c r="H64">
+        <v>7.4124348729848799E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>20</v>
@@ -5693,21 +6364,24 @@
         <v>80</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F65" s="1">
-        <v>0.549993671786009</v>
+        <v>0.93999915623813401</v>
       </c>
       <c r="G65" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94</v>
+      </c>
+      <c r="H65">
+        <v>7.3502576112747103E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>20</v>
@@ -5716,21 +6390,24 @@
         <v>80</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F66" s="1">
-        <v>0.81368271765341005</v>
+        <v>0.93885491288348999</v>
       </c>
       <c r="G66" s="1">
-        <v>0.81387500000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.93887500000000002</v>
+      </c>
+      <c r="H66">
+        <v>7.3676482021808598E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>20</v>
@@ -5739,19 +6416,22 @@
         <v>80</v>
       </c>
       <c r="D67" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F67" s="1">
-        <v>0.92392923517101699</v>
+        <v>0.93510864636495605</v>
       </c>
       <c r="G67" s="1">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.93512499999999998</v>
+      </c>
+      <c r="H67">
+        <v>7.4032384008169097E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5773,10 +6453,13 @@
       <c r="G68" s="1">
         <v>0.93025000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>7.35413126349449E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>20</v>
@@ -5788,18 +6471,21 @@
         <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F69" s="1">
-        <v>0.59979403668070397</v>
+        <v>0.92392923517101699</v>
       </c>
       <c r="G69" s="1">
-        <v>0.60050000000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H69">
+        <v>7.3410690754651994E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>20</v>
@@ -5808,21 +6494,24 @@
         <v>80</v>
       </c>
       <c r="D70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F70" s="1">
-        <v>0.85262488716592899</v>
+        <v>0.90484019381401504</v>
       </c>
       <c r="G70" s="1">
-        <v>0.85262499999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.90487499999999998</v>
+      </c>
+      <c r="H70">
+        <v>7.2935998737811994E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>20</v>
@@ -5831,21 +6520,24 @@
         <v>80</v>
       </c>
       <c r="D71" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F71" s="1">
-        <v>0.93885491288348999</v>
+        <v>0.89793621013133196</v>
       </c>
       <c r="G71" s="1">
-        <v>0.93887500000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H71">
+        <v>7.28955700099468E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>20</v>
@@ -5857,18 +6549,21 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F72" s="1">
-        <v>0.94185693840300599</v>
+        <v>0.85262488716592899</v>
       </c>
       <c r="G72" s="1">
-        <v>0.94187500000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85262499999999997</v>
+      </c>
+      <c r="H72">
+        <v>7.4737806439399701E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>20</v>
@@ -5877,21 +6572,24 @@
         <v>80</v>
       </c>
       <c r="D73" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F73" s="1">
-        <v>0.48221786165332398</v>
+        <v>0.82247954140047697</v>
       </c>
       <c r="G73" s="1">
-        <v>0.482875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.82262500000000005</v>
+      </c>
+      <c r="H73">
+        <v>7.5246104419231394E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>20</v>
@@ -5900,21 +6598,24 @@
         <v>80</v>
       </c>
       <c r="D74" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F74" s="1">
-        <v>0.82247954140047697</v>
+        <v>0.81368271765341005</v>
       </c>
       <c r="G74" s="1">
-        <v>0.82262500000000005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.81387500000000002</v>
+      </c>
+      <c r="H74">
+        <v>7.4210938990116104E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>20</v>
@@ -5923,21 +6624,24 @@
         <v>80</v>
       </c>
       <c r="D75" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" s="1">
-        <v>0.93999915623813401</v>
+        <v>0.80936824800213902</v>
       </c>
       <c r="G75" s="1">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.80974999999999997</v>
+      </c>
+      <c r="H75">
+        <v>7.3735557198524398E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>20</v>
@@ -5946,21 +6650,24 @@
         <v>80</v>
       </c>
       <c r="D76" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F76" s="1">
-        <v>0.94399467599388598</v>
+        <v>0.72831742146479195</v>
       </c>
       <c r="G76" s="1">
-        <v>0.94399999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.72962499999999997</v>
+      </c>
+      <c r="H76">
+        <v>7.34690316021442E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>20</v>
@@ -5969,21 +6676,24 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F77" s="1">
-        <v>0.43643188812021799</v>
+        <v>0.59979403668070397</v>
       </c>
       <c r="G77" s="1">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="H77">
+        <v>7.44341967105865E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>20</v>
@@ -5992,21 +6702,24 @@
         <v>80</v>
       </c>
       <c r="D78" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F78" s="1">
-        <v>0.80936824800213902</v>
+        <v>0.549993671786009</v>
       </c>
       <c r="G78" s="1">
-        <v>0.80974999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H78">
+        <v>7.4276083409786198E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>20</v>
@@ -6015,21 +6728,24 @@
         <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F79" s="1">
-        <v>0.93510864636495605</v>
+        <v>0.48221786165332398</v>
       </c>
       <c r="G79" s="1">
-        <v>0.93512499999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.482875</v>
+      </c>
+      <c r="H79">
+        <v>7.3979519397020299E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>20</v>
@@ -6038,19 +6754,22 @@
         <v>80</v>
       </c>
       <c r="D80" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F80" s="1">
-        <v>0.94712347236406802</v>
+        <v>0.43643188812021799</v>
       </c>
       <c r="G80" s="1">
-        <v>0.94712499999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.437</v>
+      </c>
+      <c r="H80">
+        <v>7.3533291608095103E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6072,8 +6791,11 @@
       <c r="G81" s="1">
         <v>0.416375</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>7.3197964191436704E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6084,19 +6806,22 @@
         <v>120</v>
       </c>
       <c r="D82" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F82" s="1">
-        <v>0.72452259319664902</v>
+        <v>0.93796859660202903</v>
       </c>
       <c r="G82" s="1">
-        <v>0.72575000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H82">
+        <v>0.109859607487916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6107,19 +6832,22 @@
         <v>120</v>
       </c>
       <c r="D83" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F83" s="1">
-        <v>0.90033362443855802</v>
+        <v>0.93787439330462197</v>
       </c>
       <c r="G83" s="1">
-        <v>0.90037500000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.93787500000000001</v>
+      </c>
+      <c r="H83">
+        <v>0.114827055811882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -6130,19 +6858,22 @@
         <v>120</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F84" s="1">
-        <v>0.90959193183644305</v>
+        <v>0.93649046960109406</v>
       </c>
       <c r="G84" s="1">
-        <v>0.90962500000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9365</v>
+      </c>
+      <c r="H84">
+        <v>0.11006466749310399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -6153,19 +6884,22 @@
         <v>120</v>
       </c>
       <c r="D85" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F85" s="1">
-        <v>0.52724420874155697</v>
+        <v>0.93449783433464695</v>
       </c>
       <c r="G85" s="1">
-        <v>0.52725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9345</v>
+      </c>
+      <c r="H85">
+        <v>0.11400903603434499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>81</v>
       </c>
@@ -6176,19 +6910,22 @@
         <v>120</v>
       </c>
       <c r="D86" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86" s="1">
-        <v>0.75922973253802195</v>
+        <v>0.93233643070826</v>
       </c>
       <c r="G86" s="1">
-        <v>0.760625</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.93237499999999995</v>
+      </c>
+      <c r="H86">
+        <v>0.10851776993274601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>81</v>
       </c>
@@ -6202,16 +6939,19 @@
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F87" s="1">
-        <v>0.916169438830716</v>
+        <v>0.92468334004865105</v>
       </c>
       <c r="G87" s="1">
-        <v>0.91625000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.92474999999999996</v>
+      </c>
+      <c r="H87">
+        <v>0.109200082480907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>81</v>
       </c>
@@ -6222,19 +6962,22 @@
         <v>120</v>
       </c>
       <c r="D88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F88" s="1">
-        <v>0.92468334004865105</v>
+        <v>0.92424279833101597</v>
       </c>
       <c r="G88" s="1">
-        <v>0.92474999999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.92425000000000002</v>
+      </c>
+      <c r="H88">
+        <v>0.11733635407686201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>81</v>
       </c>
@@ -6248,16 +6991,19 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F89" s="1">
-        <v>0.53553552927132897</v>
+        <v>0.916169438830716</v>
       </c>
       <c r="G89" s="1">
-        <v>0.53612499999999996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.91625000000000001</v>
+      </c>
+      <c r="H89">
+        <v>0.10883668655157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>81</v>
       </c>
@@ -6268,19 +7014,22 @@
         <v>120</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F90" s="1">
-        <v>0.83085311397869999</v>
+        <v>0.90959193183644305</v>
       </c>
       <c r="G90" s="1">
-        <v>0.83087500000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.90962500000000002</v>
+      </c>
+      <c r="H90">
+        <v>0.113836152404546</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>81</v>
       </c>
@@ -6291,19 +7040,22 @@
         <v>120</v>
       </c>
       <c r="D91" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F91" s="1">
-        <v>0.93233643070826</v>
+        <v>0.90033362443855802</v>
       </c>
       <c r="G91" s="1">
-        <v>0.93237499999999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.90037500000000004</v>
+      </c>
+      <c r="H91">
+        <v>0.108092107445001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>81</v>
       </c>
@@ -6317,16 +7069,19 @@
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F92" s="1">
-        <v>0.93796859660202903</v>
+        <v>0.83085311397869999</v>
       </c>
       <c r="G92" s="1">
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.83087500000000003</v>
+      </c>
+      <c r="H92">
+        <v>0.10999478650093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>81</v>
       </c>
@@ -6337,19 +7092,22 @@
         <v>120</v>
       </c>
       <c r="D93" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F93" s="1">
-        <v>0.478481568486394</v>
+        <v>0.78944639461433097</v>
       </c>
       <c r="G93" s="1">
-        <v>0.47912500000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.78962500000000002</v>
+      </c>
+      <c r="H93">
+        <v>0.116614431947469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>81</v>
       </c>
@@ -6360,19 +7118,22 @@
         <v>120</v>
       </c>
       <c r="D94" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F94" s="1">
-        <v>0.78944639461433097</v>
+        <v>0.78513439274014696</v>
       </c>
       <c r="G94" s="1">
-        <v>0.78962500000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="H94">
+        <v>0.109495337039232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>81</v>
       </c>
@@ -6383,19 +7144,22 @@
         <v>120</v>
       </c>
       <c r="D95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F95" s="1">
-        <v>0.93449783433464695</v>
+        <v>0.75922973253802195</v>
       </c>
       <c r="G95" s="1">
-        <v>0.9345</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.760625</v>
+      </c>
+      <c r="H95">
+        <v>0.114918568432331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>81</v>
       </c>
@@ -6406,19 +7170,22 @@
         <v>120</v>
       </c>
       <c r="D96" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F96" s="1">
-        <v>0.93649046960109406</v>
+        <v>0.72452259319664902</v>
       </c>
       <c r="G96" s="1">
-        <v>0.9365</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.72575000000000001</v>
+      </c>
+      <c r="H96">
+        <v>0.110028093010187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>81</v>
       </c>
@@ -6429,19 +7196,22 @@
         <v>120</v>
       </c>
       <c r="D97" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F97" s="1">
-        <v>0.43021122910532</v>
+        <v>0.53553552927132897</v>
       </c>
       <c r="G97" s="1">
-        <v>0.43075000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.53612499999999996</v>
+      </c>
+      <c r="H97">
+        <v>0.109712917596101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>81</v>
       </c>
@@ -6452,19 +7222,22 @@
         <v>120</v>
       </c>
       <c r="D98" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F98" s="1">
-        <v>0.78513439274014696</v>
+        <v>0.52724420874155697</v>
       </c>
       <c r="G98" s="1">
-        <v>0.78549999999999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.52725</v>
+      </c>
+      <c r="H98">
+        <v>0.11832206353545099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>81</v>
       </c>
@@ -6475,19 +7248,22 @@
         <v>120</v>
       </c>
       <c r="D99" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F99" s="1">
-        <v>0.92424279833101597</v>
+        <v>0.478481568486394</v>
       </c>
       <c r="G99" s="1">
-        <v>0.92425000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.47912500000000002</v>
+      </c>
+      <c r="H99">
+        <v>0.11028844532370501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>81</v>
       </c>
@@ -6498,19 +7274,22 @@
         <v>120</v>
       </c>
       <c r="D100" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F100" s="1">
-        <v>0.93787439330462197</v>
+        <v>0.43021122910532</v>
       </c>
       <c r="G100" s="1">
-        <v>0.93787500000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.43075000000000002</v>
+      </c>
+      <c r="H100">
+        <v>0.11434998676180801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>81</v>
       </c>
@@ -6532,18 +7311,26 @@
       <c r="G101" s="1">
         <v>0.41512500000000002</v>
       </c>
+      <c r="H101">
+        <v>0.112359381884336</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G101" xr:uid="{AD12EFB7-CBBC-4E85-B4DA-69DDA97BC6A5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
+      <sortCondition ref="C1:C101"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C68E221-AFFF-48A1-91F3-672A47904AA0}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6554,9 +7341,10 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -6578,8 +7366,11 @@
       <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>39</v>
       </c>
@@ -6601,8 +7392,11 @@
       <c r="G2" s="4">
         <v>0.95862499999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>9.3844381272792793E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>35</v>
       </c>
@@ -6624,8 +7418,11 @@
       <c r="G3" s="4">
         <v>0.95625000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>9.2127393782138797E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>19</v>
       </c>
@@ -6647,8 +7444,11 @@
       <c r="G4" s="2">
         <v>0.95537499999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>9.2541105151176407E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>38</v>
       </c>
@@ -6670,8 +7470,11 @@
       <c r="G5" s="2">
         <v>0.95462499999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>9.2117987275123596E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>59</v>
       </c>
@@ -6693,8 +7496,11 @@
       <c r="G6" s="2">
         <v>0.95337499999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>9.1456187963485699E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>31</v>
       </c>
@@ -6716,8 +7522,11 @@
       <c r="G7" s="2">
         <v>0.95337499999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>9.0041422545909799E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -6739,8 +7548,11 @@
       <c r="G8" s="2">
         <v>0.95287500000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>9.0065324902534397E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>34</v>
       </c>
@@ -6762,8 +7574,11 @@
       <c r="G9" s="2">
         <v>0.95237499999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <v>9.0472413003444604E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -6785,8 +7600,11 @@
       <c r="G10" s="2">
         <v>0.951125</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <v>8.9915891885757396E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -6808,8 +7626,11 @@
       <c r="G11" s="2">
         <v>0.94950000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <v>8.9972371757030493E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30</v>
       </c>
@@ -6831,8 +7652,11 @@
       <c r="G12" s="2">
         <v>0.94899999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <v>9.6545281112194008E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>55</v>
       </c>
@@ -6854,8 +7678,11 @@
       <c r="G13" s="2">
         <v>0.94874999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <v>9.4314416944980602E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6877,8 +7704,11 @@
       <c r="G14" s="2">
         <v>0.94750000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <v>9.3408426940441106E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>79</v>
       </c>
@@ -6900,8 +7730,11 @@
       <c r="G15" s="2">
         <v>0.94712499999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <v>9.3064932823181106E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>51</v>
       </c>
@@ -6923,8 +7756,11 @@
       <c r="G16" s="2">
         <v>0.94650000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>9.2564955353736794E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>54</v>
       </c>
@@ -6946,8 +7782,11 @@
       <c r="G17" s="2">
         <v>0.94537499999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <v>9.5907673835754301E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -6969,8 +7808,11 @@
       <c r="G18" s="2">
         <v>0.94499999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <v>1.0113450825214299E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>58</v>
       </c>
@@ -6992,8 +7834,11 @@
       <c r="G19" s="2">
         <v>0.94487500000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <v>1.0057932376861501E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>50</v>
       </c>
@@ -7015,8 +7860,11 @@
       <c r="G20" s="2">
         <v>0.94450000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <v>9.8241818547248807E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -7038,8 +7886,11 @@
       <c r="G21" s="2">
         <v>0.94399999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <v>9.9111781120300203E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>71</v>
       </c>
@@ -7061,8 +7912,11 @@
       <c r="G22" s="2">
         <v>0.94187500000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <v>2.5101822108030299E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>74</v>
       </c>
@@ -7084,8 +7938,11 @@
       <c r="G23" s="2">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <v>2.4047244220972E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>70</v>
       </c>
@@ -7107,8 +7964,11 @@
       <c r="G24" s="2">
         <v>0.93887500000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <v>2.4103595286607701E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27</v>
       </c>
@@ -7130,8 +7990,11 @@
       <c r="G25" s="2">
         <v>0.93887500000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2">
+        <v>2.3853209972381498E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>81</v>
       </c>
@@ -7153,8 +8016,11 @@
       <c r="G26" s="2">
         <v>0.93799999999999994</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <v>2.6441565692424701E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>81</v>
       </c>
@@ -7176,8 +8042,11 @@
       <c r="G27" s="2">
         <v>0.93787500000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>2.4961262822151099E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>81</v>
       </c>
@@ -7199,8 +8068,11 @@
       <c r="G28" s="2">
         <v>0.9365</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <v>2.36409487128257E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>78</v>
       </c>
@@ -7222,8 +8094,11 @@
       <c r="G29" s="2">
         <v>0.93512499999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>2.3652370512485501E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>81</v>
       </c>
@@ -7245,8 +8120,11 @@
       <c r="G30" s="2">
         <v>0.9345</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>2.36245273649692E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>47</v>
       </c>
@@ -7268,8 +8146,11 @@
       <c r="G31" s="2">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <v>2.6275749474763799E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>81</v>
       </c>
@@ -7291,8 +8172,11 @@
       <c r="G32" s="2">
         <v>0.93237499999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>2.4408273518085399E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>67</v>
       </c>
@@ -7314,8 +8198,11 @@
       <c r="G33" s="2">
         <v>0.93025000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <v>2.4159039825201001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -7337,8 +8224,11 @@
       <c r="G34" s="2">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <v>2.4177934080362298E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -7360,8 +8250,11 @@
       <c r="G35" s="2">
         <v>0.92662500000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <v>2.39694747030735E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>46</v>
       </c>
@@ -7383,8 +8276,11 @@
       <c r="G36" s="2">
         <v>0.92649999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <v>2.55455741286277E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>81</v>
       </c>
@@ -7406,8 +8302,11 @@
       <c r="G37" s="2">
         <v>0.92474999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="2">
+        <v>2.4434844076633402E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>81</v>
       </c>
@@ -7429,8 +8328,11 @@
       <c r="G38" s="2">
         <v>0.92425000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2">
+        <v>2.4160225421190201E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
@@ -7452,8 +8354,11 @@
       <c r="G39" s="2">
         <v>0.92412499999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2">
+        <v>2.42839800715446E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>66</v>
       </c>
@@ -7475,8 +8380,11 @@
       <c r="G40" s="2">
         <v>0.92400000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <v>2.4123148381710001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>81</v>
       </c>
@@ -7498,8 +8406,11 @@
       <c r="G41" s="2">
         <v>0.91625000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <v>2.4969727843999801E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>17</v>
       </c>
@@ -7521,8 +8432,11 @@
       <c r="G42" s="2">
         <v>0.91437500000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="2">
+        <v>5.1492272943258199E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>81</v>
       </c>
@@ -7544,8 +8458,11 @@
       <c r="G43" s="2">
         <v>0.90962500000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <v>4.6938245415687502E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>63</v>
       </c>
@@ -7567,8 +8484,11 @@
       <c r="G44" s="2">
         <v>0.90487499999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="2">
+        <v>4.6712073653936301E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>13</v>
       </c>
@@ -7590,8 +8510,11 @@
       <c r="G45" s="2">
         <v>0.90349999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="2">
+        <v>4.5839535176754001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -7613,8 +8536,11 @@
       <c r="G46" s="2">
         <v>0.90049999999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="2">
+        <v>4.5271456241607597E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>81</v>
       </c>
@@ -7636,8 +8562,11 @@
       <c r="G47" s="2">
         <v>0.90037500000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2">
+        <v>5.0535273730754803E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>62</v>
       </c>
@@ -7659,8 +8588,11 @@
       <c r="G48" s="2">
         <v>0.89800000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="2">
+        <v>4.6180569946765899E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -7682,8 +8614,11 @@
       <c r="G49" s="2">
         <v>0.89649999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="2">
+        <v>4.71182513236999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>29</v>
       </c>
@@ -7705,8 +8640,11 @@
       <c r="G50" s="2">
         <v>0.89575000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="2">
+        <v>4.5401719868183102E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>33</v>
       </c>
@@ -7728,8 +8666,11 @@
       <c r="G51" s="2">
         <v>0.89137500000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="2">
+        <v>4.4992005497217102E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42</v>
       </c>
@@ -7751,8 +8692,11 @@
       <c r="G52" s="2">
         <v>0.89124999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="2">
+        <v>4.8042502909898699E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>37</v>
       </c>
@@ -7774,8 +8718,11 @@
       <c r="G53" s="2">
         <v>0.88937500000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="2">
+        <v>4.6644586145877798E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -7797,8 +8744,11 @@
       <c r="G54" s="2">
         <v>0.88924999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="2">
+        <v>4.7591908603906601E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
@@ -7820,8 +8770,11 @@
       <c r="G55" s="2">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="2">
+        <v>4.6082687675952902E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>49</v>
       </c>
@@ -7843,8 +8796,11 @@
       <c r="G56" s="2">
         <v>0.87624999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="2">
+        <v>4.5681158632040003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>25</v>
       </c>
@@ -7866,8 +8822,11 @@
       <c r="G57" s="2">
         <v>0.87312500000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="2">
+        <v>4.6470133632421397E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>5</v>
       </c>
@@ -7889,8 +8848,11 @@
       <c r="G58" s="2">
         <v>0.86250000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="2">
+        <v>4.6622066766023602E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>69</v>
       </c>
@@ -7912,8 +8874,11 @@
       <c r="G59" s="2">
         <v>0.85262499999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="2">
+        <v>4.7498013883829099E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>53</v>
       </c>
@@ -7935,8 +8900,11 @@
       <c r="G60" s="2">
         <v>0.85112500000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="2">
+        <v>4.6007554262876497E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -7958,8 +8926,11 @@
       <c r="G61" s="2">
         <v>0.85075000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="2">
+        <v>4.5598732650279999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -7981,8 +8952,11 @@
       <c r="G62" s="2">
         <v>0.84699999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="2">
+        <v>7.4589934617280904E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45</v>
       </c>
@@ -8004,8 +8978,11 @@
       <c r="G63" s="2">
         <v>0.84312500000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="2">
+        <v>7.4807109832763605E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>57</v>
       </c>
@@ -8027,8 +9004,11 @@
       <c r="G64" s="2">
         <v>0.84287500000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="2">
+        <v>7.4124348729848799E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>81</v>
       </c>
@@ -8050,8 +9030,11 @@
       <c r="G65" s="2">
         <v>0.83087500000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="2">
+        <v>7.3502576112747103E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>73</v>
       </c>
@@ -8073,8 +9056,11 @@
       <c r="G66" s="2">
         <v>0.82262500000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="2">
+        <v>7.3676482021808598E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8096,8 +9082,11 @@
       <c r="G67" s="2">
         <v>0.81387500000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="2">
+        <v>7.4032384008169097E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>77</v>
       </c>
@@ -8119,8 +9108,11 @@
       <c r="G68" s="2">
         <v>0.80974999999999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="2">
+        <v>7.35413126349449E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>81</v>
       </c>
@@ -8142,8 +9134,11 @@
       <c r="G69" s="2">
         <v>0.78962500000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="2">
+        <v>7.3410690754651994E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>81</v>
       </c>
@@ -8165,8 +9160,11 @@
       <c r="G70" s="2">
         <v>0.78549999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="2">
+        <v>7.2935998737811994E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>21</v>
       </c>
@@ -8188,8 +9186,11 @@
       <c r="G71" s="2">
         <v>0.77512499999999995</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="2">
+        <v>7.28955700099468E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -8211,8 +9212,11 @@
       <c r="G72" s="2">
         <v>0.76937500000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="2">
+        <v>7.4737806439399701E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>81</v>
       </c>
@@ -8234,8 +9238,11 @@
       <c r="G73" s="2">
         <v>0.760625</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="2">
+        <v>7.5246104419231394E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41</v>
       </c>
@@ -8257,8 +9264,11 @@
       <c r="G74" s="2">
         <v>0.74850000000000005</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="2">
+        <v>7.4210938990116104E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>28</v>
       </c>
@@ -8280,8 +9290,11 @@
       <c r="G75" s="2">
         <v>0.73287500000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="2">
+        <v>7.3735557198524398E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>61</v>
       </c>
@@ -8303,8 +9316,11 @@
       <c r="G76" s="2">
         <v>0.72962499999999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="2">
+        <v>7.34690316021442E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>81</v>
       </c>
@@ -8326,8 +9342,11 @@
       <c r="G77" s="2">
         <v>0.72575000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="2">
+        <v>7.44341967105865E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>24</v>
       </c>
@@ -8349,8 +9368,11 @@
       <c r="G78" s="2">
         <v>0.65500000000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="2">
+        <v>7.4276083409786198E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>48</v>
       </c>
@@ -8372,8 +9394,11 @@
       <c r="G79" s="2">
         <v>0.62562499999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="2">
+        <v>7.3979519397020299E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -8395,8 +9420,11 @@
       <c r="G80" s="2">
         <v>0.622</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="2">
+        <v>7.3533291608095103E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -8418,8 +9446,11 @@
       <c r="G81" s="2">
         <v>0.61724999999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="2">
+        <v>7.3197964191436704E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>68</v>
       </c>
@@ -8441,8 +9472,11 @@
       <c r="G82" s="2">
         <v>0.60050000000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="2">
+        <v>0.109859607487916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44</v>
       </c>
@@ -8464,8 +9498,11 @@
       <c r="G83" s="2">
         <v>0.57262500000000005</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="2">
+        <v>0.114827055811882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>64</v>
       </c>
@@ -8487,8 +9524,11 @@
       <c r="G84" s="2">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="2">
+        <v>0.11006466749310399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>32</v>
       </c>
@@ -8510,8 +9550,11 @@
       <c r="G85" s="2">
         <v>0.54025000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="2">
+        <v>0.11400903603434499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>81</v>
       </c>
@@ -8533,8 +9576,11 @@
       <c r="G86" s="2">
         <v>0.53612499999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="2">
+        <v>0.10851776993274601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>81</v>
       </c>
@@ -8556,8 +9602,11 @@
       <c r="G87" s="2">
         <v>0.52725</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="2">
+        <v>0.109200082480907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>20</v>
       </c>
@@ -8579,8 +9628,11 @@
       <c r="G88" s="2">
         <v>0.50049999999999994</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="2">
+        <v>0.11733635407686201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>52</v>
       </c>
@@ -8602,8 +9654,11 @@
       <c r="G89" s="2">
         <v>0.49375000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="2">
+        <v>0.10883668655157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>72</v>
       </c>
@@ -8625,8 +9680,11 @@
       <c r="G90" s="2">
         <v>0.482875</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="2">
+        <v>0.113836152404546</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>81</v>
       </c>
@@ -8648,8 +9706,11 @@
       <c r="G91" s="2">
         <v>0.47912500000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="2">
+        <v>0.108092107445001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>36</v>
       </c>
@@ -8671,8 +9732,11 @@
       <c r="G92" s="2">
         <v>0.47825000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="2">
+        <v>0.10999478650093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>56</v>
       </c>
@@ -8694,8 +9758,11 @@
       <c r="G93" s="2">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="2">
+        <v>0.116614431947469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>76</v>
       </c>
@@ -8717,8 +9784,11 @@
       <c r="G94" s="2">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="2">
+        <v>0.109495337039232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>81</v>
       </c>
@@ -8740,8 +9810,11 @@
       <c r="G95" s="2">
         <v>0.43075000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="2">
+        <v>0.114918568432331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>12</v>
       </c>
@@ -8763,8 +9836,11 @@
       <c r="G96" s="2">
         <v>0.53774999999999995</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="2">
+        <v>0.110028093010187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>60</v>
       </c>
@@ -8786,8 +9862,11 @@
       <c r="G97" s="2">
         <v>0.419875</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="2">
+        <v>0.109712917596101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>80</v>
       </c>
@@ -8809,8 +9888,11 @@
       <c r="G98" s="2">
         <v>0.416375</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="2">
+        <v>0.11832206353545099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>81</v>
       </c>
@@ -8832,8 +9914,11 @@
       <c r="G99" s="2">
         <v>0.41512500000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="2">
+        <v>0.11028844532370501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>40</v>
       </c>
@@ -8855,8 +9940,11 @@
       <c r="G100" s="2">
         <v>0.40787499999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="2">
+        <v>0.11434998676180801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>8</v>
       </c>
@@ -8877,6 +9965,9 @@
       </c>
       <c r="G101" s="2">
         <v>0.5</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.112359381884336</v>
       </c>
     </row>
   </sheetData>
